--- a/Docs/planning/Urenplanning en verantwoording themaopdracht Devices.xlsx
+++ b/Docs/planning/Urenplanning en verantwoording themaopdracht Devices.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MuscioCraft\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MuscioCraft\Documents\Skilled_Eagle\Docs\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Grafiek1" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="55">
   <si>
     <t>lesweek</t>
   </si>
@@ -44,12 +45,6 @@
   </si>
   <si>
     <t>Projectweek 1</t>
-  </si>
-  <si>
-    <t>weektotaal</t>
-  </si>
-  <si>
-    <t>Projectweek 2</t>
   </si>
   <si>
     <t>weektotaal</t>
@@ -125,12 +120,6 @@
     <t>Verbeteren Taak Structuren</t>
   </si>
   <si>
-    <t>Uitschrijven ir sender</t>
-  </si>
-  <si>
-    <t>Uitschrijven ir recever</t>
-  </si>
-  <si>
     <t>Uitschrijven schietknop</t>
   </si>
   <si>
@@ -186,6 +175,18 @@
   </si>
   <si>
     <t>Rtos onderzoek</t>
+  </si>
+  <si>
+    <t>Besprekingen met begeleider</t>
+  </si>
+  <si>
+    <t>24,27-okt</t>
+  </si>
+  <si>
+    <t>Uitschrijven ir sender / recever</t>
+  </si>
+  <si>
+    <t>Game controller</t>
   </si>
 </sst>
 </file>
@@ -243,7 +244,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,8 +341,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F983"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -426,19 +445,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -503,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -573,17 +579,14 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -620,15 +623,15 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -638,16 +641,84 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF6F983"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -657,6 +728,2915 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$5:$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>Geplande uren</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$22:$C$55</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="34"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Besprekingen met begeleider</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>weektotaal</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Uitschrijven ir sender / recever</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Game controller</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Uitschrijven schietknop</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Uitschrijven keypad</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Uitschrijven Score aan console geven</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Uitschrijven game starter</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Uitschrijven Spel leider </c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Uitschrijven display</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Uitschrijven speaker</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Samen voegen klasse</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>Besprekingen met begeleider</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>weektotaal</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>24,27-okt</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>Projectweek 3</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$22:$D$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$5:$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>Bestede
+uren</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$22:$C$55</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="34"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Besprekingen met begeleider</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>weektotaal</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Uitschrijven ir sender / recever</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Game controller</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Uitschrijven schietknop</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Uitschrijven keypad</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Uitschrijven Score aan console geven</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Uitschrijven game starter</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Uitschrijven Spel leider </c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Uitschrijven display</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Uitschrijven speaker</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Samen voegen klasse</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>Besprekingen met begeleider</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>weektotaal</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>24,27-okt</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>Projectweek 3</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$22:$E$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$5:$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>Geplande uren</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$22:$C$55</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="34"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Besprekingen met begeleider</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>weektotaal</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Uitschrijven ir sender / recever</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Game controller</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Uitschrijven schietknop</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Uitschrijven keypad</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Uitschrijven Score aan console geven</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Uitschrijven game starter</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Uitschrijven Spel leider </c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Uitschrijven display</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Uitschrijven speaker</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Samen voegen klasse</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>Besprekingen met begeleider</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>weektotaal</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>24,27-okt</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>Projectweek 3</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$22:$F$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$5:$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>Bestede
+uren</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$22:$C$55</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="34"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Besprekingen met begeleider</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>weektotaal</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Uitschrijven ir sender / recever</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Game controller</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Uitschrijven schietknop</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Uitschrijven keypad</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Uitschrijven Score aan console geven</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Uitschrijven game starter</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Uitschrijven Spel leider </c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Uitschrijven display</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Uitschrijven speaker</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Samen voegen klasse</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>Besprekingen met begeleider</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>weektotaal</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>24,27-okt</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>Projectweek 3</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$22:$G$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$5:$H$21</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>Geplande uren</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$22:$C$55</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="34"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Besprekingen met begeleider</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>weektotaal</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Uitschrijven ir sender / recever</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Game controller</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Uitschrijven schietknop</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Uitschrijven keypad</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Uitschrijven Score aan console geven</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Uitschrijven game starter</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Uitschrijven Spel leider </c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Uitschrijven display</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Uitschrijven speaker</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Samen voegen klasse</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>Besprekingen met begeleider</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>weektotaal</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>24,27-okt</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>Projectweek 3</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$22:$H$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$5:$I$21</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>Bestede
+uren</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$22:$C$55</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="34"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Besprekingen met begeleider</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>weektotaal</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Uitschrijven ir sender / recever</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Game controller</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Uitschrijven schietknop</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Uitschrijven keypad</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Uitschrijven Score aan console geven</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Uitschrijven game starter</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Uitschrijven Spel leider </c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Uitschrijven display</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Uitschrijven speaker</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Samen voegen klasse</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>Besprekingen met begeleider</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>weektotaal</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>24,27-okt</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>Projectweek 3</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$22:$I$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$5:$J$21</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>Geplande uren</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$22:$C$55</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="34"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Besprekingen met begeleider</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>weektotaal</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Uitschrijven ir sender / recever</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Game controller</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Uitschrijven schietknop</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Uitschrijven keypad</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Uitschrijven Score aan console geven</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Uitschrijven game starter</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Uitschrijven Spel leider </c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Uitschrijven display</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Uitschrijven speaker</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Samen voegen klasse</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>Besprekingen met begeleider</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>weektotaal</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>24,27-okt</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>Projectweek 3</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$22:$J$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$5:$K$21</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>Bestede
+uren</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$22:$C$55</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="34"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Besprekingen met begeleider</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>weektotaal</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Uitschrijven ir sender / recever</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Game controller</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Uitschrijven schietknop</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Uitschrijven keypad</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Uitschrijven Score aan console geven</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Uitschrijven game starter</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Uitschrijven Spel leider </c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Uitschrijven display</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Uitschrijven speaker</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>Debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Samen voegen klasse</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Testen</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>debuggen</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>Besprekingen met begeleider</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>weektotaal</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>24,27-okt</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>Projectweek 3</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$22:$K$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="441058496"/>
+        <c:axId val="441059280"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="441058496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441059280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="441059280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441058496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="69" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9317935" cy="6087717"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -946,10 +3926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L135"/>
+  <dimension ref="A1:L136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -969,17 +3949,17 @@
   <sheetData>
     <row r="1" spans="1:12" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="B2" s="1"/>
       <c r="C2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>17</v>
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="1"/>
@@ -993,22 +3973,22 @@
       <c r="A3" s="15"/>
       <c r="B3" s="20"/>
       <c r="C3" s="21"/>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="55"/>
+      <c r="F3" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="59" t="s">
+      <c r="I3" s="56"/>
+      <c r="J3" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="59"/>
+      <c r="K3" s="56"/>
       <c r="L3" s="23"/>
     </row>
     <row r="5" spans="1:12" s="29" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1025,190 +4005,190 @@
         <v>3</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5" s="26" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H5" s="27" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J5" s="28" t="s">
         <v>5</v>
       </c>
       <c r="K5" s="28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="39" t="s">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="41">
+      <c r="C6" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="38">
+        <v>2</v>
+      </c>
+      <c r="E6" s="38">
+        <v>2</v>
+      </c>
+      <c r="F6" s="39">
+        <v>2</v>
+      </c>
+      <c r="G6" s="39">
+        <v>2</v>
+      </c>
+      <c r="H6" s="40">
+        <v>2</v>
+      </c>
+      <c r="I6" s="40">
+        <v>2</v>
+      </c>
+      <c r="J6" s="41">
+        <v>2</v>
+      </c>
+      <c r="K6" s="41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="38">
         <v>1</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E7" s="38">
         <v>1</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F7" s="39">
+        <v>4</v>
+      </c>
+      <c r="G7" s="39">
+        <v>4</v>
+      </c>
+      <c r="H7" s="40">
         <v>1</v>
       </c>
-      <c r="G6" s="42">
+      <c r="I7" s="40">
+        <v>1</v>
+      </c>
+      <c r="J7" s="41">
+        <v>1</v>
+      </c>
+      <c r="K7" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="53"/>
+      <c r="B8" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="38">
+        <v>6</v>
+      </c>
+      <c r="E8" s="38">
+        <v>6</v>
+      </c>
+      <c r="F8" s="39">
+        <v>1</v>
+      </c>
+      <c r="G8" s="39">
+        <v>1</v>
+      </c>
+      <c r="H8" s="40">
+        <v>6</v>
+      </c>
+      <c r="I8" s="40">
+        <v>6</v>
+      </c>
+      <c r="J8" s="41">
+        <v>6</v>
+      </c>
+      <c r="K8" s="41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="29" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="52"/>
+      <c r="B9" s="37">
+        <v>42667</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="38">
         <v>2</v>
       </c>
-      <c r="H6" s="43">
-        <v>1</v>
-      </c>
-      <c r="I6" s="43">
-        <v>1</v>
-      </c>
-      <c r="J6" s="44">
-        <v>1</v>
-      </c>
-      <c r="K6" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="42">
+      <c r="E9" s="38">
         <v>2</v>
       </c>
-      <c r="G7" s="42">
+      <c r="F9" s="39">
         <v>2</v>
       </c>
-      <c r="H7" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="60"/>
-      <c r="B8" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="41">
-        <v>4</v>
-      </c>
-      <c r="E8" s="41">
-        <v>4</v>
-      </c>
-      <c r="F8" s="42">
-        <v>4</v>
-      </c>
-      <c r="G8" s="42">
-        <v>4</v>
-      </c>
-      <c r="H8" s="43">
-        <v>4</v>
-      </c>
-      <c r="I8" s="43">
-        <v>4</v>
-      </c>
-      <c r="J8" s="44">
-        <v>4</v>
-      </c>
-      <c r="K8" s="44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="29" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="56"/>
-      <c r="B9" s="40">
-        <v>42667</v>
-      </c>
-      <c r="C9" s="39" t="s">
+      <c r="G9" s="39">
+        <v>2</v>
+      </c>
+      <c r="H9" s="40">
+        <v>2</v>
+      </c>
+      <c r="I9" s="40">
+        <v>2</v>
+      </c>
+      <c r="J9" s="41">
+        <v>2</v>
+      </c>
+      <c r="K9" s="41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="41">
-        <v>2</v>
-      </c>
-      <c r="E9" s="41">
-        <v>2</v>
-      </c>
-      <c r="F9" s="42">
-        <v>2</v>
-      </c>
-      <c r="G9" s="42">
-        <v>2</v>
-      </c>
-      <c r="H9" s="43">
-        <v>2</v>
-      </c>
-      <c r="I9" s="43">
-        <v>2</v>
-      </c>
-      <c r="J9" s="44">
-        <v>2</v>
-      </c>
-      <c r="K9" s="44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="40" t="s">
-        <v>51</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="46">
-        <v>6</v>
-      </c>
-      <c r="G10" s="46">
-        <v>6</v>
-      </c>
-      <c r="H10" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="43">
+        <v>6</v>
+      </c>
+      <c r="G10" s="43">
+        <v>6</v>
+      </c>
+      <c r="H10" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="45" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1218,30 +4198,30 @@
         <v>42669</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="47">
+        <v>22</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="44">
         <v>2</v>
       </c>
-      <c r="I11" s="47">
+      <c r="I11" s="44">
         <v>2</v>
       </c>
-      <c r="J11" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="48" t="s">
+      <c r="J11" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="45" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1251,63 +4231,63 @@
         <v>42670</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="46">
-        <v>2</v>
-      </c>
-      <c r="G12" s="46">
-        <v>2</v>
-      </c>
-      <c r="H12" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="42">
+        <v>3</v>
+      </c>
+      <c r="F12" s="43">
+        <v>3</v>
+      </c>
+      <c r="G12" s="43">
+        <v>3</v>
+      </c>
+      <c r="H12" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="45" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="40" t="s">
-        <v>51</v>
+      <c r="B13" s="37" t="s">
+        <v>47</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="45">
-        <v>6</v>
-      </c>
-      <c r="E13" s="45">
-        <v>6</v>
-      </c>
-      <c r="F13" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="42">
+        <v>6</v>
+      </c>
+      <c r="E13" s="42">
+        <v>6</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="45" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1317,30 +4297,30 @@
         <v>42669</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="48">
+        <v>25</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="45">
         <v>2</v>
       </c>
-      <c r="K14" s="48">
+      <c r="K14" s="45">
         <v>2</v>
       </c>
     </row>
@@ -1350,63 +4330,63 @@
         <v>42670</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="45">
-        <v>2</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="47">
-        <v>2</v>
-      </c>
-      <c r="I15" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="K15" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="42">
+        <v>3</v>
+      </c>
+      <c r="E15" s="42">
+        <v>3</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="45" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
-      <c r="B16" s="40" t="s">
-        <v>51</v>
+      <c r="B16" s="37" t="s">
+        <v>47</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="48">
-        <v>6</v>
-      </c>
-      <c r="K16" s="48">
+        <v>27</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="45">
+        <v>6</v>
+      </c>
+      <c r="K16" s="45">
         <v>6</v>
       </c>
     </row>
@@ -1416,30 +4396,30 @@
         <v>42669</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="45">
+        <v>26</v>
+      </c>
+      <c r="D17" s="42">
         <v>2</v>
       </c>
-      <c r="E17" s="45">
+      <c r="E17" s="42">
         <v>2</v>
       </c>
-      <c r="F17" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="K17" s="48" t="s">
+      <c r="F17" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="43">
+        <v>1</v>
+      </c>
+      <c r="H17" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="45" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1449,63 +4429,63 @@
         <v>42670</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="47">
-        <v>2</v>
-      </c>
-      <c r="I18" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="48">
-        <v>2</v>
-      </c>
-      <c r="K18" s="48" t="s">
-        <v>6</v>
+        <v>28</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="45">
+        <v>3</v>
+      </c>
+      <c r="K18" s="45">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
-      <c r="B19" s="40" t="s">
-        <v>51</v>
+      <c r="B19" s="37" t="s">
+        <v>47</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="47">
-        <v>6</v>
-      </c>
-      <c r="I19" s="47">
-        <v>6</v>
-      </c>
-      <c r="J19" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="K19" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="44">
+        <v>4</v>
+      </c>
+      <c r="I19" s="44">
+        <v>4</v>
+      </c>
+      <c r="J19" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="45" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1515,1194 +4495,979 @@
         <v>42669</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="43">
+        <v>2</v>
+      </c>
+      <c r="G20" s="43">
+        <v>2</v>
+      </c>
+      <c r="H20" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="57"/>
+      <c r="B21" s="58">
+        <v>42670</v>
+      </c>
+      <c r="C21" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="46">
+      <c r="D21" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="61">
+        <v>4</v>
+      </c>
+      <c r="I21" s="61">
+        <v>4</v>
+      </c>
+      <c r="J21" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="33"/>
+      <c r="B22" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="65">
         <v>2</v>
       </c>
-      <c r="G20" s="46">
+      <c r="F22" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="66">
         <v>2</v>
       </c>
-      <c r="H20" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="K20" s="48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="2">
-        <v>42670</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="47">
-        <v>4</v>
-      </c>
-      <c r="I21" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="K21" s="48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="32" t="s">
+      <c r="H22" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="67">
+        <v>2</v>
+      </c>
+      <c r="J22" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="63"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="49">
-        <f t="shared" ref="D22:K22" si="0">SUM(D6:D21)</f>
-        <v>17</v>
-      </c>
-      <c r="E22" s="49">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="F22" s="49">
-        <f t="shared" si="0"/>
+      <c r="D23" s="64">
+        <f>SUM(D6:D22)</f>
+        <v>22</v>
+      </c>
+      <c r="E23" s="64">
+        <f>SUM(E6:E22)</f>
+        <v>27</v>
+      </c>
+      <c r="F23" s="64">
+        <f>SUM(F6:F22)</f>
+        <v>20</v>
+      </c>
+      <c r="G23" s="64">
+        <f>SUM(G6:G22)</f>
+        <v>23</v>
+      </c>
+      <c r="H23" s="64">
+        <f>SUM(H7:H22)</f>
         <v>19</v>
       </c>
-      <c r="G22" s="49">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H22" s="49">
-        <f t="shared" si="0"/>
+      <c r="I23" s="64">
+        <f>SUM(I6:I22)</f>
         <v>23</v>
       </c>
-      <c r="I22" s="49">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="J22" s="49">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="K22" s="49">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+      <c r="J23" s="64">
+        <f>SUM(J6:J22)</f>
+        <v>22</v>
+      </c>
+      <c r="K23" s="64">
+        <f>SUM(K6:K22)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="45">
+      <c r="B24" s="2"/>
+      <c r="C24" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="42">
+        <v>16</v>
+      </c>
+      <c r="E24" s="42"/>
+      <c r="F24" s="43">
+        <v>8</v>
+      </c>
+      <c r="G24" s="43"/>
+      <c r="H24" s="44">
+        <v>2</v>
+      </c>
+      <c r="I24" s="44"/>
+      <c r="J24" s="45">
         <v>10</v>
       </c>
-      <c r="E23" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="46">
-        <v>4</v>
-      </c>
-      <c r="G23" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23" s="47">
-        <v>4</v>
-      </c>
-      <c r="I23" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="48">
-        <v>10</v>
-      </c>
-      <c r="K23" s="48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="50">
-        <v>4</v>
-      </c>
-      <c r="E24" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="46">
-        <v>2</v>
-      </c>
-      <c r="G24" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="47">
-        <v>2</v>
-      </c>
-      <c r="I24" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" s="48">
-        <v>6</v>
-      </c>
-      <c r="K24" s="48" t="s">
-        <v>6</v>
-      </c>
+      <c r="K24" s="45"/>
     </row>
     <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="30"/>
-      <c r="C25" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="50">
-        <v>4</v>
-      </c>
-      <c r="E25" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="46">
+      <c r="C25" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="42">
+        <v>1</v>
+      </c>
+      <c r="E25" s="42"/>
+      <c r="F25" s="43">
+        <v>1</v>
+      </c>
+      <c r="G25" s="43"/>
+      <c r="H25" s="44">
         <v>2</v>
       </c>
-      <c r="G25" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H25" s="47">
+      <c r="I25" s="44"/>
+      <c r="J25" s="45">
+        <v>2</v>
+      </c>
+      <c r="K25" s="45"/>
+    </row>
+    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="42">
         <v>1</v>
       </c>
-      <c r="I25" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J25" s="48">
-        <v>4</v>
-      </c>
-      <c r="K25" s="48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="50">
-        <v>9</v>
-      </c>
-      <c r="E26" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="46">
-        <v>3</v>
-      </c>
-      <c r="G26" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" s="47">
+      <c r="E26" s="42"/>
+      <c r="F26" s="43">
         <v>1</v>
       </c>
-      <c r="I26" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" s="48">
-        <v>9</v>
-      </c>
-      <c r="K26" s="48" t="s">
-        <v>6</v>
-      </c>
+      <c r="G26" s="43"/>
+      <c r="H26" s="44">
+        <v>2</v>
+      </c>
+      <c r="I26" s="44"/>
+      <c r="J26" s="45">
+        <v>2</v>
+      </c>
+      <c r="K26" s="45"/>
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
+      <c r="A27" s="6"/>
       <c r="B27" s="30"/>
-      <c r="C27" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="50">
-        <v>4</v>
-      </c>
-      <c r="E27" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="46">
-        <v>4</v>
-      </c>
-      <c r="G27" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" s="47">
-        <v>1</v>
-      </c>
-      <c r="I27" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" s="48">
+      <c r="C27" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="42">
         <v>5</v>
       </c>
-      <c r="K27" s="48" t="s">
-        <v>6</v>
-      </c>
+      <c r="E27" s="42"/>
+      <c r="F27" s="43">
+        <v>5</v>
+      </c>
+      <c r="G27" s="43"/>
+      <c r="H27" s="44">
+        <v>5</v>
+      </c>
+      <c r="I27" s="44"/>
+      <c r="J27" s="45">
+        <v>5</v>
+      </c>
+      <c r="K27" s="45"/>
     </row>
     <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
+      <c r="A28" s="7"/>
       <c r="B28" s="30"/>
-      <c r="C28" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="50">
-        <v>3</v>
-      </c>
-      <c r="E28" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="46">
-        <v>3</v>
-      </c>
-      <c r="G28" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" s="47">
-        <v>1</v>
-      </c>
-      <c r="I28" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J28" s="48">
-        <v>4</v>
-      </c>
-      <c r="K28" s="48" t="s">
-        <v>6</v>
-      </c>
+      <c r="C28" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="42">
+        <v>2</v>
+      </c>
+      <c r="E28" s="42"/>
+      <c r="F28" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="43"/>
+      <c r="H28" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="44"/>
+      <c r="J28" s="45">
+        <v>2</v>
+      </c>
+      <c r="K28" s="88"/>
     </row>
     <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="46">
-        <v>3</v>
-      </c>
-      <c r="G29" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H29" s="47">
-        <v>3</v>
-      </c>
-      <c r="I29" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J29" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="K29" s="48" t="s">
-        <v>6</v>
-      </c>
+      <c r="B29" s="30"/>
+      <c r="C29" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="42">
+        <v>2</v>
+      </c>
+      <c r="E29" s="42"/>
+      <c r="F29" s="43">
+        <v>2</v>
+      </c>
+      <c r="G29" s="43"/>
+      <c r="H29" s="44">
+        <v>2</v>
+      </c>
+      <c r="I29" s="44"/>
+      <c r="J29" s="45">
+        <v>2</v>
+      </c>
+      <c r="K29" s="45"/>
     </row>
     <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="34"/>
-      <c r="C30" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="46">
-        <v>3</v>
-      </c>
-      <c r="G30" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H30" s="47">
-        <v>3</v>
-      </c>
-      <c r="I30" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J30" s="48">
-        <v>1</v>
-      </c>
-      <c r="K30" s="48" t="s">
-        <v>6</v>
-      </c>
+      <c r="C30" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="42"/>
+      <c r="F30" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="43"/>
+      <c r="H30" s="44">
+        <v>5</v>
+      </c>
+      <c r="I30" s="44"/>
+      <c r="J30" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30" s="45"/>
     </row>
     <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="34"/>
-      <c r="C31" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="46">
-        <v>3</v>
-      </c>
-      <c r="G31" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H31" s="47">
-        <v>3</v>
-      </c>
-      <c r="I31" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J31" s="48">
-        <v>2</v>
-      </c>
-      <c r="K31" s="48" t="s">
-        <v>6</v>
-      </c>
+      <c r="C31" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="42"/>
+      <c r="F31" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="43"/>
+      <c r="H31" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="44"/>
+      <c r="J31" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K31" s="45"/>
     </row>
     <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="34"/>
-      <c r="C32" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="46">
-        <v>3</v>
-      </c>
-      <c r="G32" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H32" s="47">
-        <v>1</v>
-      </c>
-      <c r="I32" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J32" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="K32" s="48" t="s">
-        <v>6</v>
-      </c>
+      <c r="C32" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="42"/>
+      <c r="F32" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="43"/>
+      <c r="H32" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" s="44"/>
+      <c r="J32" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K32" s="45"/>
     </row>
     <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="34"/>
-      <c r="C33" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F33" s="46">
-        <v>4</v>
-      </c>
-      <c r="G33" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H33" s="47">
-        <v>3</v>
-      </c>
-      <c r="I33" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J33" s="48">
-        <v>1</v>
-      </c>
-      <c r="K33" s="48" t="s">
-        <v>6</v>
-      </c>
+      <c r="C33" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="42"/>
+      <c r="F33" s="43">
+        <v>5</v>
+      </c>
+      <c r="G33" s="43"/>
+      <c r="H33" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="44"/>
+      <c r="J33" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" s="45"/>
     </row>
     <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="34"/>
-      <c r="C34" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34" s="46">
-        <v>3</v>
-      </c>
-      <c r="G34" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H34" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="I34" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J34" s="48">
-        <v>2</v>
-      </c>
-      <c r="K34" s="48" t="s">
-        <v>6</v>
-      </c>
+      <c r="C34" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="42"/>
+      <c r="F34" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="43"/>
+      <c r="H34" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="44"/>
+      <c r="J34" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K34" s="45"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="34"/>
-      <c r="C35" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="50">
-        <v>3</v>
-      </c>
-      <c r="E35" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H35" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="I35" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J35" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="K35" s="48" t="s">
-        <v>6</v>
-      </c>
+      <c r="C35" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="42"/>
+      <c r="F35" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="43"/>
+      <c r="H35" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="44"/>
+      <c r="J35" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K35" s="45"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="34"/>
-      <c r="C36" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" s="50">
-        <v>3</v>
-      </c>
-      <c r="E36" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H36" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="I36" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J36" s="48">
-        <v>1</v>
-      </c>
-      <c r="K36" s="48" t="s">
-        <v>6</v>
-      </c>
+      <c r="C36" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="42">
+        <v>5</v>
+      </c>
+      <c r="E36" s="42"/>
+      <c r="F36" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="43"/>
+      <c r="H36" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" s="44"/>
+      <c r="J36" s="45">
+        <v>5</v>
+      </c>
+      <c r="K36" s="45"/>
     </row>
     <row r="37" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="34"/>
-      <c r="C37" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" s="50">
-        <v>3</v>
-      </c>
-      <c r="E37" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F37" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G37" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H37" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="I37" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J37" s="48">
-        <v>2</v>
-      </c>
-      <c r="K37" s="48" t="s">
-        <v>6</v>
-      </c>
+      <c r="C37" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="42"/>
+      <c r="F37" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="43"/>
+      <c r="H37" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" s="44"/>
+      <c r="J37" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K37" s="45"/>
     </row>
     <row r="38" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="34"/>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="42"/>
+      <c r="F38" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="43"/>
+      <c r="H38" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" s="44"/>
+      <c r="J38" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K38" s="45"/>
+    </row>
+    <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="6"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="42"/>
+      <c r="F39" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="43"/>
+      <c r="H39" s="44">
+        <v>2</v>
+      </c>
+      <c r="I39" s="44"/>
+      <c r="J39" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K39" s="45"/>
+    </row>
+    <row r="40" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="7"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H38" s="47">
-        <v>4</v>
-      </c>
-      <c r="I38" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J38" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="K38" s="48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F39" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H39" s="47">
-        <v>4</v>
-      </c>
-      <c r="I39" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J39" s="48">
-        <v>1</v>
-      </c>
-      <c r="K39" s="48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="6"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="D40" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H40" s="47">
-        <v>4</v>
-      </c>
-      <c r="I40" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J40" s="48">
-        <v>2</v>
-      </c>
-      <c r="K40" s="48" t="s">
-        <v>6</v>
-      </c>
+      <c r="D40" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="42"/>
+      <c r="F40" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="43"/>
+      <c r="H40" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="I40" s="44"/>
+      <c r="J40" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K40" s="45"/>
     </row>
     <row r="41" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="7"/>
+      <c r="A41" s="6"/>
       <c r="B41" s="34"/>
-      <c r="C41" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F41" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G41" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H41" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="I41" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J41" s="48">
-        <v>8</v>
-      </c>
-      <c r="K41" s="48" t="s">
-        <v>6</v>
-      </c>
+      <c r="C41" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="42"/>
+      <c r="F41" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="43"/>
+      <c r="H41" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" s="44"/>
+      <c r="J41" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K41" s="45"/>
     </row>
     <row r="42" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
       <c r="B42" s="34"/>
-      <c r="C42" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" s="46">
-        <v>2</v>
-      </c>
-      <c r="G42" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H42" s="47">
-        <v>2</v>
-      </c>
-      <c r="I42" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J42" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="K42" s="48" t="s">
-        <v>6</v>
-      </c>
+      <c r="C42" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="42"/>
+      <c r="F42" s="43">
+        <v>6</v>
+      </c>
+      <c r="G42" s="43"/>
+      <c r="H42" s="44">
+        <v>6</v>
+      </c>
+      <c r="I42" s="44"/>
+      <c r="J42" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K42" s="45"/>
     </row>
     <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
       <c r="B43" s="34"/>
-      <c r="C43" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="D43" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F43" s="46">
-        <v>1</v>
-      </c>
-      <c r="G43" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H43" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="I43" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J43" s="48">
-        <v>1</v>
-      </c>
-      <c r="K43" s="48" t="s">
-        <v>6</v>
-      </c>
+      <c r="C43" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="42"/>
+      <c r="F43" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="43"/>
+      <c r="H43" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="I43" s="44"/>
+      <c r="J43" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K43" s="45"/>
     </row>
     <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="49">
-        <f t="shared" ref="D44:K44" si="1">SUM(D23:D43)</f>
-        <v>43</v>
-      </c>
-      <c r="E44" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="49">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="G44" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="49">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="I44" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="49">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="K44" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A44" s="7"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="42"/>
+      <c r="F44" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="43"/>
+      <c r="H44" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="I44" s="44"/>
+      <c r="J44" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K44" s="45"/>
     </row>
     <row r="45" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="B45" s="2"/>
-      <c r="C45" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" s="45">
-        <v>4</v>
-      </c>
-      <c r="E45" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F45" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G45" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H45" s="47">
-        <v>4</v>
-      </c>
-      <c r="I45" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J45" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="K45" s="48" t="s">
-        <v>6</v>
-      </c>
+      <c r="C45" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="42"/>
+      <c r="F45" s="43">
+        <v>2</v>
+      </c>
+      <c r="G45" s="43"/>
+      <c r="H45" s="44">
+        <v>6</v>
+      </c>
+      <c r="I45" s="44"/>
+      <c r="J45" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K45" s="45"/>
     </row>
     <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" s="45">
-        <v>4</v>
-      </c>
-      <c r="E46" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F46" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G46" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H46" s="47">
-        <v>4</v>
-      </c>
-      <c r="I46" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J46" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="K46" s="48" t="s">
-        <v>6</v>
-      </c>
+      <c r="C46" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="42"/>
+      <c r="F46" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="87"/>
+      <c r="H46" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="I46" s="44"/>
+      <c r="J46" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K46" s="45"/>
     </row>
     <row r="47" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D47" s="45">
-        <v>4</v>
-      </c>
-      <c r="E47" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F47" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G47" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H47" s="47">
-        <v>4</v>
-      </c>
-      <c r="I47" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J47" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="K47" s="48" t="s">
-        <v>6</v>
-      </c>
+      <c r="C47" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="42"/>
+      <c r="F47" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="43"/>
+      <c r="H47" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="I47" s="44"/>
+      <c r="J47" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K47" s="45"/>
     </row>
     <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D48" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" s="46">
-        <v>2</v>
-      </c>
-      <c r="G48" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H48" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="I48" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J48" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="K48" s="48" t="s">
-        <v>6</v>
-      </c>
+      <c r="C48" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="42"/>
+      <c r="F48" s="43">
+        <v>4</v>
+      </c>
+      <c r="G48" s="43"/>
+      <c r="H48" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="I48" s="44"/>
+      <c r="J48" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K48" s="45"/>
     </row>
     <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="D49" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" s="46">
-        <v>2</v>
-      </c>
-      <c r="G49" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H49" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="I49" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J49" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="K49" s="48" t="s">
-        <v>6</v>
-      </c>
+      <c r="C49" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="42"/>
+      <c r="F49" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="43"/>
+      <c r="H49" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="I49" s="44"/>
+      <c r="J49" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K49" s="45"/>
     </row>
     <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D50" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F50" s="46">
-        <v>2</v>
-      </c>
-      <c r="G50" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H50" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="I50" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J50" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="K50" s="48" t="s">
-        <v>6</v>
-      </c>
+      <c r="C50" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="42"/>
+      <c r="F50" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="43"/>
+      <c r="H50" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="I50" s="44"/>
+      <c r="J50" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K50" s="45"/>
     </row>
     <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D51" s="45">
+      <c r="C51" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="42">
         <v>4</v>
       </c>
-      <c r="E51" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F51" s="46">
-        <v>8</v>
-      </c>
-      <c r="G51" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H51" s="47">
+      <c r="E51" s="42"/>
+      <c r="F51" s="43">
         <v>4</v>
       </c>
-      <c r="I51" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J51" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="K51" s="48" t="s">
-        <v>6</v>
-      </c>
+      <c r="G51" s="43"/>
+      <c r="H51" s="44">
+        <v>4</v>
+      </c>
+      <c r="I51" s="44"/>
+      <c r="J51" s="45">
+        <v>4</v>
+      </c>
+      <c r="K51" s="45"/>
     </row>
     <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D52" s="45">
-        <v>2</v>
-      </c>
-      <c r="E52" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" s="46">
-        <v>4</v>
-      </c>
-      <c r="G52" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H52" s="47">
-        <v>5</v>
-      </c>
-      <c r="I52" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J52" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="K52" s="48" t="s">
-        <v>6</v>
-      </c>
+      <c r="C52" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="42">
+        <v>8</v>
+      </c>
+      <c r="E52" s="42"/>
+      <c r="F52" s="43">
+        <v>8</v>
+      </c>
+      <c r="G52" s="43"/>
+      <c r="H52" s="44">
+        <v>8</v>
+      </c>
+      <c r="I52" s="44"/>
+      <c r="J52" s="45">
+        <v>8</v>
+      </c>
+      <c r="K52" s="45"/>
     </row>
     <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="D53" s="45">
-        <v>4</v>
-      </c>
-      <c r="E53" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" s="46">
-        <v>4</v>
-      </c>
-      <c r="G53" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H53" s="47">
-        <v>4</v>
-      </c>
-      <c r="I53" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J53" s="48">
-        <v>4</v>
-      </c>
-      <c r="K53" s="48" t="s">
-        <v>6</v>
-      </c>
+      <c r="C53" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="42">
+        <v>6</v>
+      </c>
+      <c r="E53" s="42"/>
+      <c r="F53" s="43">
+        <v>6</v>
+      </c>
+      <c r="G53" s="43"/>
+      <c r="H53" s="44">
+        <v>6</v>
+      </c>
+      <c r="I53" s="44"/>
+      <c r="J53" s="45">
+        <v>6</v>
+      </c>
+      <c r="K53" s="45"/>
     </row>
     <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="49">
-        <f t="shared" ref="D54:K54" si="2">SUM(D45:D53)</f>
-        <v>22</v>
-      </c>
-      <c r="E54" s="49">
-        <f t="shared" si="2"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="65">
+        <v>2</v>
+      </c>
+      <c r="E54" s="65"/>
+      <c r="F54" s="66">
+        <v>2</v>
+      </c>
+      <c r="G54" s="66"/>
+      <c r="H54" s="67">
+        <v>2</v>
+      </c>
+      <c r="I54" s="67"/>
+      <c r="J54" s="68">
+        <v>2</v>
+      </c>
+      <c r="K54" s="68"/>
+    </row>
+    <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="46">
+        <f>SUM(D24:D54)</f>
+        <v>52</v>
+      </c>
+      <c r="E55" s="46">
+        <f>SUM(E24:E54)</f>
         <v>0</v>
       </c>
-      <c r="F54" s="49">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="G54" s="49">
-        <f t="shared" si="2"/>
+      <c r="F55" s="46">
+        <f>SUM(F24:F54)</f>
+        <v>54</v>
+      </c>
+      <c r="G55" s="46">
+        <f>SUM(G24:G54)</f>
         <v>0</v>
       </c>
-      <c r="H54" s="49">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="I54" s="49">
-        <f t="shared" si="2"/>
+      <c r="H55" s="46">
+        <f>SUM(H24:H54)</f>
+        <v>52</v>
+      </c>
+      <c r="I55" s="46">
+        <f>SUM(I24:I54)</f>
         <v>0</v>
       </c>
-      <c r="J54" s="49">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="K54" s="49">
-        <f t="shared" si="2"/>
+      <c r="J55" s="46">
+        <f>SUM(J24:J54)</f>
+        <v>48</v>
+      </c>
+      <c r="K55" s="46">
+        <f>SUM(K24:K54)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="51"/>
-      <c r="K55" s="51"/>
-    </row>
     <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="9"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="52">
-        <f t="shared" ref="D56:K56" si="3">SUM(D54,D22,D44)</f>
-        <v>82</v>
-      </c>
-      <c r="E56" s="52">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="F56" s="53">
-        <f t="shared" si="3"/>
-        <v>81</v>
-      </c>
-      <c r="G56" s="53">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="H56" s="54">
-        <f t="shared" si="3"/>
-        <v>85</v>
-      </c>
-      <c r="I56" s="54">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="J56" s="55">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="K56" s="55">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="47"/>
     </row>
     <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
+      <c r="A57" s="9"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="48">
+        <f>SUM(D55,D23,)</f>
+        <v>74</v>
+      </c>
+      <c r="E57" s="48">
+        <f>SUM(E55,E23,)</f>
+        <v>27</v>
+      </c>
+      <c r="F57" s="49">
+        <f>SUM(F55,F23,)</f>
+        <v>74</v>
+      </c>
+      <c r="G57" s="49">
+        <f>SUM(G55,G23,)</f>
+        <v>23</v>
+      </c>
+      <c r="H57" s="50">
+        <f>SUM(H55,H23,)</f>
+        <v>71</v>
+      </c>
+      <c r="I57" s="50">
+        <f>SUM(I55,I23,)</f>
+        <v>23</v>
+      </c>
+      <c r="J57" s="51">
+        <f>SUM(J55,J23,)</f>
+        <v>70</v>
+      </c>
+      <c r="K57" s="51">
+        <f>SUM(K55,K23,)</f>
+        <v>24</v>
+      </c>
     </row>
     <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
+      <c r="D58" s="86">
+        <f t="shared" ref="D58" si="0">SUM(80-D57)</f>
+        <v>6</v>
+      </c>
+      <c r="E58" s="86">
+        <f t="shared" ref="E58" si="1">SUM(80-E57)</f>
+        <v>53</v>
+      </c>
+      <c r="F58" s="86">
+        <f t="shared" ref="F58" si="2">SUM(80-F57)</f>
+        <v>6</v>
+      </c>
+      <c r="G58" s="86">
+        <f t="shared" ref="G58" si="3">SUM(80-G57)</f>
+        <v>57</v>
+      </c>
+      <c r="H58" s="86">
+        <f t="shared" ref="H58" si="4">SUM(80-H57)</f>
+        <v>9</v>
+      </c>
+      <c r="I58" s="86">
+        <f t="shared" ref="I58" si="5">SUM(80-I57)</f>
+        <v>57</v>
+      </c>
+      <c r="J58" s="86">
+        <f t="shared" ref="J58" si="6">SUM(80-J57)</f>
+        <v>10</v>
+      </c>
+      <c r="K58" s="86">
+        <f t="shared" ref="K58" si="7">SUM(80-K57)</f>
+        <v>56</v>
+      </c>
     </row>
     <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="12"/>
@@ -2717,19 +5482,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
     </row>
-    <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-    </row>
+    <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="12"/>
       <c r="B61" s="12"/>
@@ -3704,6 +6457,19 @@
       <c r="I135" s="12"/>
       <c r="J135" s="12"/>
       <c r="K135" s="12"/>
+    </row>
+    <row r="136" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="12"/>
+      <c r="B136" s="12"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="12"/>
+      <c r="I136" s="12"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3754,12 +6520,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">9999</Volgorde_x0020_Documenten>
+    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
+    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3924,19 +6691,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">9999</Volgorde_x0020_Documenten>
-    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
-    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DD477B0-7FDC-4B12-8DED-561A832309BE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FDA2D9-0F29-4761-875B-F7795DA98BB3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3960,11 +6728,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FDA2D9-0F29-4761-875B-F7795DA98BB3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DD477B0-7FDC-4B12-8DED-561A832309BE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Docs/planning/Urenplanning en verantwoording themaopdracht Devices.xlsx
+++ b/Docs/planning/Urenplanning en verantwoording themaopdracht Devices.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="56">
   <si>
     <t>lesweek</t>
   </si>
@@ -123,9 +123,6 @@
     <t>Uitschrijven schietknop</t>
   </si>
   <si>
-    <t>Uitschrijven Score aan console geven</t>
-  </si>
-  <si>
     <t>Uitschrijven keypad</t>
   </si>
   <si>
@@ -187,6 +184,12 @@
   </si>
   <si>
     <t>Game controller</t>
+  </si>
+  <si>
+    <t>VERVALLEN</t>
+  </si>
+  <si>
+    <t>documenteren</t>
   </si>
 </sst>
 </file>
@@ -509,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -632,15 +635,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -702,12 +696,36 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -745,7 +763,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -856,9 +873,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$22:$C$55</c:f>
+              <c:f>Sheet1!$A$22:$C$56</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Besprekingen met begeleider</c:v>
@@ -903,13 +920,13 @@
                     <c:v>Debuggen</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>Uitschrijven Score aan console geven</c:v>
+                    <c:v>VERVALLEN</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>Testen</c:v>
+                    <c:v>VERVALLEN</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Debuggen</c:v>
+                    <c:v>VERVALLEN</c:v>
                   </c:pt>
                   <c:pt idx="17">
                     <c:v>Uitschrijven game starter</c:v>
@@ -957,9 +974,12 @@
                     <c:v>debuggen</c:v>
                   </c:pt>
                   <c:pt idx="32">
+                    <c:v>documenteren</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
                     <c:v>Besprekingen met begeleider</c:v>
                   </c:pt>
-                  <c:pt idx="33">
+                  <c:pt idx="34">
                     <c:v>weektotaal</c:v>
                   </c:pt>
                 </c:lvl>
@@ -967,10 +987,28 @@
                   <c:pt idx="0">
                     <c:v>24,27-okt</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>VERVALLEN</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>VERVALLEN</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>VERVALLEN</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="2">
                     <c:v>Projectweek 3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>VERVALLEN</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>VERVALLEN</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>VERVALLEN</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -978,10 +1016,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$22:$D$55</c:f>
+              <c:f>Sheet1!$D$22:$D$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1004,7 +1042,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1025,7 +1063,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -1070,19 +1108,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>52</c:v>
+                <c:pt idx="34">
+                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1163,9 +1204,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$22:$C$55</c:f>
+              <c:f>Sheet1!$A$22:$C$56</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Besprekingen met begeleider</c:v>
@@ -1210,13 +1251,13 @@
                     <c:v>Debuggen</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>Uitschrijven Score aan console geven</c:v>
+                    <c:v>VERVALLEN</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>Testen</c:v>
+                    <c:v>VERVALLEN</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Debuggen</c:v>
+                    <c:v>VERVALLEN</c:v>
                   </c:pt>
                   <c:pt idx="17">
                     <c:v>Uitschrijven game starter</c:v>
@@ -1264,9 +1305,12 @@
                     <c:v>debuggen</c:v>
                   </c:pt>
                   <c:pt idx="32">
+                    <c:v>documenteren</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
                     <c:v>Besprekingen met begeleider</c:v>
                   </c:pt>
-                  <c:pt idx="33">
+                  <c:pt idx="34">
                     <c:v>weektotaal</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1274,10 +1318,28 @@
                   <c:pt idx="0">
                     <c:v>24,27-okt</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>VERVALLEN</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>VERVALLEN</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>VERVALLEN</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="2">
                     <c:v>Projectweek 3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>VERVALLEN</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>VERVALLEN</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>VERVALLEN</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1285,18 +1347,87 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$22:$E$55</c:f>
+              <c:f>Sheet1!$E$22:$E$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>27</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1376,9 +1507,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$22:$C$55</c:f>
+              <c:f>Sheet1!$A$22:$C$56</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Besprekingen met begeleider</c:v>
@@ -1423,13 +1554,13 @@
                     <c:v>Debuggen</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>Uitschrijven Score aan console geven</c:v>
+                    <c:v>VERVALLEN</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>Testen</c:v>
+                    <c:v>VERVALLEN</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Debuggen</c:v>
+                    <c:v>VERVALLEN</c:v>
                   </c:pt>
                   <c:pt idx="17">
                     <c:v>Uitschrijven game starter</c:v>
@@ -1477,9 +1608,12 @@
                     <c:v>debuggen</c:v>
                   </c:pt>
                   <c:pt idx="32">
+                    <c:v>documenteren</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
                     <c:v>Besprekingen met begeleider</c:v>
                   </c:pt>
-                  <c:pt idx="33">
+                  <c:pt idx="34">
                     <c:v>weektotaal</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1487,10 +1621,28 @@
                   <c:pt idx="0">
                     <c:v>24,27-okt</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>VERVALLEN</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>VERVALLEN</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>VERVALLEN</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="2">
                     <c:v>Projectweek 3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>VERVALLEN</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>VERVALLEN</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>VERVALLEN</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1498,10 +1650,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$22:$F$55</c:f>
+              <c:f>Sheet1!$F$22:$F$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1509,7 +1661,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -1524,7 +1676,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1590,18 +1742,21 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>54</c:v>
                 </c:pt>
               </c:numCache>
@@ -1621,13 +1776,13 @@
 uren</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2</c:v>
@@ -1654,7 +1809,7 @@
                   <c:v>-</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>-</c:v>
@@ -1683,9 +1838,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$22:$C$55</c:f>
+              <c:f>Sheet1!$A$22:$C$56</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Besprekingen met begeleider</c:v>
@@ -1730,13 +1885,13 @@
                     <c:v>Debuggen</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>Uitschrijven Score aan console geven</c:v>
+                    <c:v>VERVALLEN</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>Testen</c:v>
+                    <c:v>VERVALLEN</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Debuggen</c:v>
+                    <c:v>VERVALLEN</c:v>
                   </c:pt>
                   <c:pt idx="17">
                     <c:v>Uitschrijven game starter</c:v>
@@ -1784,9 +1939,12 @@
                     <c:v>debuggen</c:v>
                   </c:pt>
                   <c:pt idx="32">
+                    <c:v>documenteren</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
                     <c:v>Besprekingen met begeleider</c:v>
                   </c:pt>
-                  <c:pt idx="33">
+                  <c:pt idx="34">
                     <c:v>weektotaal</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1794,10 +1952,28 @@
                   <c:pt idx="0">
                     <c:v>24,27-okt</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>VERVALLEN</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>VERVALLEN</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>VERVALLEN</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="2">
                     <c:v>Projectweek 3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>VERVALLEN</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>VERVALLEN</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>VERVALLEN</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1805,18 +1981,105 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$22:$G$55</c:f>
+              <c:f>Sheet1!$G$22:$G$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1896,9 +2159,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$22:$C$55</c:f>
+              <c:f>Sheet1!$A$22:$C$56</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Besprekingen met begeleider</c:v>
@@ -1943,13 +2206,13 @@
                     <c:v>Debuggen</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>Uitschrijven Score aan console geven</c:v>
+                    <c:v>VERVALLEN</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>Testen</c:v>
+                    <c:v>VERVALLEN</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Debuggen</c:v>
+                    <c:v>VERVALLEN</c:v>
                   </c:pt>
                   <c:pt idx="17">
                     <c:v>Uitschrijven game starter</c:v>
@@ -1997,9 +2260,12 @@
                     <c:v>debuggen</c:v>
                   </c:pt>
                   <c:pt idx="32">
+                    <c:v>documenteren</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
                     <c:v>Besprekingen met begeleider</c:v>
                   </c:pt>
-                  <c:pt idx="33">
+                  <c:pt idx="34">
                     <c:v>weektotaal</c:v>
                   </c:pt>
                 </c:lvl>
@@ -2007,10 +2273,28 @@
                   <c:pt idx="0">
                     <c:v>24,27-okt</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>VERVALLEN</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>VERVALLEN</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>VERVALLEN</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="2">
                     <c:v>Projectweek 3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>VERVALLEN</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>VERVALLEN</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>VERVALLEN</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2018,10 +2302,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$22:$H$55</c:f>
+              <c:f>Sheet1!$H$22:$H$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2029,7 +2313,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
@@ -2092,7 +2376,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -2110,19 +2394,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>52</c:v>
+                <c:pt idx="34">
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2144,7 +2431,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6</c:v>
@@ -2203,9 +2490,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$22:$C$55</c:f>
+              <c:f>Sheet1!$A$22:$C$56</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Besprekingen met begeleider</c:v>
@@ -2250,13 +2537,13 @@
                     <c:v>Debuggen</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>Uitschrijven Score aan console geven</c:v>
+                    <c:v>VERVALLEN</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>Testen</c:v>
+                    <c:v>VERVALLEN</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Debuggen</c:v>
+                    <c:v>VERVALLEN</c:v>
                   </c:pt>
                   <c:pt idx="17">
                     <c:v>Uitschrijven game starter</c:v>
@@ -2304,9 +2591,12 @@
                     <c:v>debuggen</c:v>
                   </c:pt>
                   <c:pt idx="32">
+                    <c:v>documenteren</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
                     <c:v>Besprekingen met begeleider</c:v>
                   </c:pt>
-                  <c:pt idx="33">
+                  <c:pt idx="34">
                     <c:v>weektotaal</c:v>
                   </c:pt>
                 </c:lvl>
@@ -2314,10 +2604,28 @@
                   <c:pt idx="0">
                     <c:v>24,27-okt</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>VERVALLEN</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>VERVALLEN</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>VERVALLEN</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="2">
                     <c:v>Projectweek 3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>VERVALLEN</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>VERVALLEN</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>VERVALLEN</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2325,18 +2633,105 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$22:$I$55</c:f>
+              <c:f>Sheet1!$I$22:$I$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2418,9 +2813,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$22:$C$55</c:f>
+              <c:f>Sheet1!$A$22:$C$56</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Besprekingen met begeleider</c:v>
@@ -2465,13 +2860,13 @@
                     <c:v>Debuggen</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>Uitschrijven Score aan console geven</c:v>
+                    <c:v>VERVALLEN</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>Testen</c:v>
+                    <c:v>VERVALLEN</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Debuggen</c:v>
+                    <c:v>VERVALLEN</c:v>
                   </c:pt>
                   <c:pt idx="17">
                     <c:v>Uitschrijven game starter</c:v>
@@ -2519,9 +2914,12 @@
                     <c:v>debuggen</c:v>
                   </c:pt>
                   <c:pt idx="32">
+                    <c:v>documenteren</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
                     <c:v>Besprekingen met begeleider</c:v>
                   </c:pt>
-                  <c:pt idx="33">
+                  <c:pt idx="34">
                     <c:v>weektotaal</c:v>
                   </c:pt>
                 </c:lvl>
@@ -2529,10 +2927,28 @@
                   <c:pt idx="0">
                     <c:v>24,27-okt</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>VERVALLEN</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>VERVALLEN</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>VERVALLEN</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="2">
                     <c:v>Projectweek 3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>VERVALLEN</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>VERVALLEN</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>VERVALLEN</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2540,10 +2956,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$22:$J$55</c:f>
+              <c:f>Sheet1!$J$22:$J$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2587,7 +3003,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -2632,19 +3048,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>48</c:v>
+                <c:pt idx="34">
+                  <c:v>53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2663,10 +3082,10 @@
 uren</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6</c:v>
@@ -2727,9 +3146,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$22:$C$55</c:f>
+              <c:f>Sheet1!$A$22:$C$56</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Besprekingen met begeleider</c:v>
@@ -2774,13 +3193,13 @@
                     <c:v>Debuggen</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>Uitschrijven Score aan console geven</c:v>
+                    <c:v>VERVALLEN</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>Testen</c:v>
+                    <c:v>VERVALLEN</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Debuggen</c:v>
+                    <c:v>VERVALLEN</c:v>
                   </c:pt>
                   <c:pt idx="17">
                     <c:v>Uitschrijven game starter</c:v>
@@ -2828,9 +3247,12 @@
                     <c:v>debuggen</c:v>
                   </c:pt>
                   <c:pt idx="32">
+                    <c:v>documenteren</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
                     <c:v>Besprekingen met begeleider</c:v>
                   </c:pt>
-                  <c:pt idx="33">
+                  <c:pt idx="34">
                     <c:v>weektotaal</c:v>
                   </c:pt>
                 </c:lvl>
@@ -2838,10 +3260,28 @@
                   <c:pt idx="0">
                     <c:v>24,27-okt</c:v>
                   </c:pt>
+                  <c:pt idx="14">
+                    <c:v>VERVALLEN</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>VERVALLEN</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>VERVALLEN</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="2">
                     <c:v>Projectweek 3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>VERVALLEN</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>VERVALLEN</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>VERVALLEN</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2849,18 +3289,78 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$22:$K$55</c:f>
+              <c:f>Sheet1!$K$22:$K$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2876,11 +3376,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="441058496"/>
-        <c:axId val="441059280"/>
+        <c:axId val="372853408"/>
+        <c:axId val="372853800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="441058496"/>
+        <c:axId val="372853408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2923,7 +3423,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441059280"/>
+        <c:crossAx val="372853800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2931,7 +3431,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="441059280"/>
+        <c:axId val="372853800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2982,7 +3482,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441058496"/>
+        <c:crossAx val="372853408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2996,7 +3496,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3926,10 +4425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L136"/>
+  <dimension ref="A1:L137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3973,22 +4472,22 @@
       <c r="A3" s="15"/>
       <c r="B3" s="20"/>
       <c r="C3" s="21"/>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="56" t="s">
+      <c r="E3" s="89"/>
+      <c r="F3" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56" t="s">
+      <c r="G3" s="90"/>
+      <c r="H3" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56" t="s">
+      <c r="I3" s="90"/>
+      <c r="J3" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="56"/>
+      <c r="K3" s="90"/>
       <c r="L3" s="23"/>
     </row>
     <row r="5" spans="1:12" s="29" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4029,10 +4528,10 @@
     <row r="6" spans="1:12" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="35"/>
       <c r="B6" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="38">
         <v>2</v>
@@ -4044,7 +4543,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" s="40">
         <v>2</v>
@@ -4056,7 +4555,7 @@
         <v>2</v>
       </c>
       <c r="K6" s="41">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -4064,10 +4563,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="38">
         <v>1</v>
@@ -4085,22 +4584,22 @@
         <v>1</v>
       </c>
       <c r="I7" s="40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="41">
         <v>1</v>
       </c>
       <c r="K7" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="53"/>
       <c r="B8" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="36" t="s">
         <v>49</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>50</v>
       </c>
       <c r="D8" s="38">
         <v>6</v>
@@ -4112,7 +4611,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="40">
         <v>6</v>
@@ -4133,7 +4632,7 @@
         <v>42667</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="38">
         <v>2</v>
@@ -4162,7 +4661,7 @@
     </row>
     <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>20</v>
@@ -4261,7 +4760,7 @@
     <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
@@ -4360,7 +4859,7 @@
     <row r="16" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>27</v>
@@ -4408,7 +4907,7 @@
         <v>6</v>
       </c>
       <c r="G17" s="43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" s="44" t="s">
         <v>6</v>
@@ -4459,7 +4958,7 @@
     <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>30</v>
@@ -4523,108 +5022,108 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="57"/>
-      <c r="B21" s="58">
+      <c r="A21" s="54"/>
+      <c r="B21" s="55">
         <v>42670</v>
       </c>
       <c r="C21" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="61">
+      <c r="D21" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="58">
         <v>4</v>
       </c>
-      <c r="I21" s="61">
+      <c r="I21" s="58">
         <v>4</v>
       </c>
-      <c r="J21" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="K21" s="62" t="s">
+      <c r="J21" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="59" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="33"/>
-      <c r="B22" s="69" t="s">
-        <v>52</v>
+      <c r="B22" s="66" t="s">
+        <v>51</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="65">
+        <v>50</v>
+      </c>
+      <c r="D22" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="62">
         <v>2</v>
       </c>
-      <c r="F22" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="66">
+      <c r="F22" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="63">
         <v>2</v>
       </c>
-      <c r="H22" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="67">
+      <c r="H22" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="64">
         <v>2</v>
       </c>
-      <c r="J22" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="K22" s="68">
+      <c r="J22" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="65">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="63"/>
-      <c r="B23" s="63"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="60"/>
       <c r="C23" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="64">
+      <c r="D23" s="61">
         <f>SUM(D6:D22)</f>
         <v>22</v>
       </c>
-      <c r="E23" s="64">
+      <c r="E23" s="61">
         <f>SUM(E6:E22)</f>
         <v>27</v>
       </c>
-      <c r="F23" s="64">
+      <c r="F23" s="61">
         <f>SUM(F6:F22)</f>
         <v>20</v>
       </c>
-      <c r="G23" s="64">
+      <c r="G23" s="61">
         <f>SUM(G6:G22)</f>
-        <v>23</v>
-      </c>
-      <c r="H23" s="64">
+        <v>26</v>
+      </c>
+      <c r="H23" s="61">
         <f>SUM(H7:H22)</f>
         <v>19</v>
       </c>
-      <c r="I23" s="64">
+      <c r="I23" s="61">
         <f>SUM(I6:I22)</f>
-        <v>23</v>
-      </c>
-      <c r="J23" s="64">
+        <v>24</v>
+      </c>
+      <c r="J23" s="61">
         <f>SUM(J6:J22)</f>
         <v>22</v>
       </c>
-      <c r="K23" s="64">
+      <c r="K23" s="61">
         <f>SUM(K6:K22)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4632,355 +5131,487 @@
         <v>9</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="70" t="s">
-        <v>53</v>
+      <c r="C24" s="67" t="s">
+        <v>52</v>
       </c>
       <c r="D24" s="42">
         <v>16</v>
       </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="43">
-        <v>8</v>
-      </c>
-      <c r="G24" s="43"/>
-      <c r="H24" s="44">
-        <v>2</v>
-      </c>
-      <c r="I24" s="44"/>
+      <c r="E24" s="42">
+        <v>22</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="44">
+        <v>4</v>
+      </c>
       <c r="J24" s="45">
         <v>10</v>
       </c>
-      <c r="K24" s="45"/>
+      <c r="K24" s="45">
+        <v>20</v>
+      </c>
     </row>
     <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="30"/>
-      <c r="C25" s="75" t="s">
-        <v>39</v>
+      <c r="C25" s="72" t="s">
+        <v>38</v>
       </c>
       <c r="D25" s="42">
         <v>1</v>
       </c>
-      <c r="E25" s="42"/>
+      <c r="E25" s="42">
+        <v>6</v>
+      </c>
       <c r="F25" s="43">
         <v>1</v>
       </c>
-      <c r="G25" s="43"/>
+      <c r="G25" s="43">
+        <v>6</v>
+      </c>
       <c r="H25" s="44">
         <v>2</v>
       </c>
-      <c r="I25" s="44"/>
+      <c r="I25" s="44">
+        <v>6</v>
+      </c>
       <c r="J25" s="45">
         <v>2</v>
       </c>
-      <c r="K25" s="45"/>
+      <c r="K25" s="45">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="30"/>
-      <c r="C26" s="80" t="s">
-        <v>41</v>
+      <c r="C26" s="77" t="s">
+        <v>40</v>
       </c>
       <c r="D26" s="42">
         <v>1</v>
       </c>
-      <c r="E26" s="42"/>
+      <c r="E26" s="42">
+        <v>10</v>
+      </c>
       <c r="F26" s="43">
         <v>1</v>
       </c>
-      <c r="G26" s="43"/>
+      <c r="G26" s="43">
+        <v>10</v>
+      </c>
       <c r="H26" s="44">
         <v>2</v>
       </c>
-      <c r="I26" s="44"/>
+      <c r="I26" s="44">
+        <v>10</v>
+      </c>
       <c r="J26" s="45">
         <v>2</v>
       </c>
-      <c r="K26" s="45"/>
+      <c r="K26" s="45">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="30"/>
-      <c r="C27" s="89" t="s">
-        <v>54</v>
+      <c r="C27" s="85" t="s">
+        <v>53</v>
       </c>
       <c r="D27" s="42">
         <v>5</v>
       </c>
-      <c r="E27" s="42"/>
+      <c r="E27" s="42">
+        <v>2</v>
+      </c>
       <c r="F27" s="43">
         <v>5</v>
       </c>
-      <c r="G27" s="43"/>
+      <c r="G27" s="43">
+        <v>2</v>
+      </c>
       <c r="H27" s="44">
         <v>5</v>
       </c>
-      <c r="I27" s="44"/>
+      <c r="I27" s="44">
+        <v>7</v>
+      </c>
       <c r="J27" s="45">
         <v>5</v>
       </c>
-      <c r="K27" s="45"/>
+      <c r="K27" s="45">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="30"/>
-      <c r="C28" s="90" t="s">
-        <v>39</v>
+      <c r="C28" s="86" t="s">
+        <v>38</v>
       </c>
       <c r="D28" s="42">
         <v>2</v>
       </c>
-      <c r="E28" s="42"/>
+      <c r="E28" s="42" t="s">
+        <v>6</v>
+      </c>
       <c r="F28" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G28" s="43"/>
+      <c r="G28" s="43" t="s">
+        <v>6</v>
+      </c>
       <c r="H28" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="44"/>
+      <c r="I28" s="44">
+        <v>3</v>
+      </c>
       <c r="J28" s="45">
         <v>2</v>
       </c>
-      <c r="K28" s="88"/>
+      <c r="K28" s="45">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="30"/>
-      <c r="C29" s="91" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="42">
-        <v>2</v>
-      </c>
-      <c r="E29" s="42"/>
-      <c r="F29" s="43">
-        <v>2</v>
-      </c>
-      <c r="G29" s="43"/>
+      <c r="C29" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="43" t="s">
+        <v>6</v>
+      </c>
       <c r="H29" s="44">
         <v>2</v>
       </c>
-      <c r="I29" s="44"/>
+      <c r="I29" s="44">
+        <v>3</v>
+      </c>
       <c r="J29" s="45">
         <v>2</v>
       </c>
-      <c r="K29" s="45"/>
+      <c r="K29" s="45">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="34"/>
-      <c r="C30" s="71" t="s">
+      <c r="C30" s="68" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="42"/>
+      <c r="E30" s="42">
+        <v>2</v>
+      </c>
       <c r="F30" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G30" s="43"/>
+      <c r="G30" s="43" t="s">
+        <v>6</v>
+      </c>
       <c r="H30" s="44">
         <v>5</v>
       </c>
-      <c r="I30" s="44"/>
+      <c r="I30" s="44">
+        <v>1</v>
+      </c>
       <c r="J30" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="K30" s="45"/>
+      <c r="K30" s="45" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="34"/>
-      <c r="C31" s="76" t="s">
-        <v>39</v>
+      <c r="C31" s="73" t="s">
+        <v>38</v>
       </c>
       <c r="D31" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="42"/>
+      <c r="E31" s="42">
+        <v>2</v>
+      </c>
       <c r="F31" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="43"/>
+      <c r="G31" s="43" t="s">
+        <v>6</v>
+      </c>
       <c r="H31" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="I31" s="44"/>
+      <c r="I31" s="44">
+        <v>1</v>
+      </c>
       <c r="J31" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="K31" s="45"/>
+      <c r="K31" s="45" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="34"/>
-      <c r="C32" s="81" t="s">
-        <v>41</v>
+      <c r="C32" s="78" t="s">
+        <v>40</v>
       </c>
       <c r="D32" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="42"/>
+      <c r="E32" s="42">
+        <v>2</v>
+      </c>
       <c r="F32" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G32" s="43"/>
+      <c r="G32" s="43" t="s">
+        <v>6</v>
+      </c>
       <c r="H32" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="I32" s="44"/>
+      <c r="I32" s="44">
+        <v>1</v>
+      </c>
       <c r="J32" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="K32" s="45"/>
+      <c r="K32" s="45" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="34"/>
-      <c r="C33" s="71" t="s">
-        <v>34</v>
+      <c r="C33" s="68" t="s">
+        <v>33</v>
       </c>
       <c r="D33" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="42"/>
+      <c r="E33" s="42">
+        <v>2</v>
+      </c>
       <c r="F33" s="43">
         <v>5</v>
       </c>
-      <c r="G33" s="43"/>
+      <c r="G33" s="43">
+        <v>5</v>
+      </c>
       <c r="H33" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="I33" s="44"/>
+      <c r="I33" s="44" t="s">
+        <v>6</v>
+      </c>
       <c r="J33" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="K33" s="45"/>
+      <c r="K33" s="45" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="34"/>
-      <c r="C34" s="76" t="s">
-        <v>39</v>
+      <c r="C34" s="73" t="s">
+        <v>38</v>
       </c>
       <c r="D34" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="42"/>
+      <c r="E34" s="42">
+        <v>2</v>
+      </c>
       <c r="F34" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G34" s="43"/>
+      <c r="G34" s="43">
+        <v>2</v>
+      </c>
       <c r="H34" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="I34" s="44"/>
+      <c r="I34" s="44" t="s">
+        <v>6</v>
+      </c>
       <c r="J34" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="K34" s="45"/>
+      <c r="K34" s="45" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="34"/>
-      <c r="C35" s="81" t="s">
-        <v>41</v>
+      <c r="C35" s="78" t="s">
+        <v>40</v>
       </c>
       <c r="D35" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="42"/>
+      <c r="E35" s="42">
+        <v>2</v>
+      </c>
       <c r="F35" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G35" s="43"/>
+      <c r="G35" s="43">
+        <v>2</v>
+      </c>
       <c r="H35" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="I35" s="44"/>
+      <c r="I35" s="44" t="s">
+        <v>6</v>
+      </c>
       <c r="J35" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="K35" s="45"/>
+      <c r="K35" s="45" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="6"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="42">
-        <v>5</v>
-      </c>
-      <c r="E36" s="42"/>
-      <c r="F36" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="43"/>
-      <c r="H36" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="I36" s="44"/>
-      <c r="J36" s="45">
-        <v>5</v>
-      </c>
-      <c r="K36" s="45"/>
+      <c r="A36" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="37" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="6"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="42"/>
-      <c r="F37" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G37" s="43"/>
-      <c r="H37" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="I37" s="44"/>
-      <c r="J37" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="K37" s="45"/>
+      <c r="A37" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="38" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="6"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="42"/>
-      <c r="F38" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" s="43"/>
-      <c r="H38" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="I38" s="44"/>
-      <c r="J38" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="K38" s="45"/>
+      <c r="A38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="85" t="s">
+      <c r="C39" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="82" t="s">
         <v>6</v>
       </c>
       <c r="E39" s="42"/>
@@ -4991,7 +5622,9 @@
       <c r="H39" s="44">
         <v>2</v>
       </c>
-      <c r="I39" s="44"/>
+      <c r="I39" s="44">
+        <v>2</v>
+      </c>
       <c r="J39" s="45" t="s">
         <v>6</v>
       </c>
@@ -5000,8 +5633,8 @@
     <row r="40" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
       <c r="B40" s="34"/>
-      <c r="C40" s="75" t="s">
-        <v>39</v>
+      <c r="C40" s="72" t="s">
+        <v>38</v>
       </c>
       <c r="D40" s="42" t="s">
         <v>6</v>
@@ -5014,7 +5647,9 @@
       <c r="H40" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="I40" s="44"/>
+      <c r="I40" s="44">
+        <v>1</v>
+      </c>
       <c r="J40" s="45" t="s">
         <v>6</v>
       </c>
@@ -5023,8 +5658,8 @@
     <row r="41" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="34"/>
-      <c r="C41" s="81" t="s">
-        <v>41</v>
+      <c r="C41" s="78" t="s">
+        <v>40</v>
       </c>
       <c r="D41" s="42" t="s">
         <v>6</v>
@@ -5037,7 +5672,9 @@
       <c r="H41" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="I41" s="44"/>
+      <c r="I41" s="44">
+        <v>1</v>
+      </c>
       <c r="J41" s="45" t="s">
         <v>6</v>
       </c>
@@ -5046,8 +5683,8 @@
     <row r="42" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
       <c r="B42" s="34"/>
-      <c r="C42" s="72" t="s">
-        <v>42</v>
+      <c r="C42" s="69" t="s">
+        <v>41</v>
       </c>
       <c r="D42" s="42" t="s">
         <v>6</v>
@@ -5056,11 +5693,15 @@
       <c r="F42" s="43">
         <v>6</v>
       </c>
-      <c r="G42" s="43"/>
+      <c r="G42" s="43">
+        <v>4</v>
+      </c>
       <c r="H42" s="44">
         <v>6</v>
       </c>
-      <c r="I42" s="44"/>
+      <c r="I42" s="44">
+        <v>4</v>
+      </c>
       <c r="J42" s="45" t="s">
         <v>6</v>
       </c>
@@ -5069,8 +5710,8 @@
     <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
       <c r="B43" s="34"/>
-      <c r="C43" s="77" t="s">
-        <v>39</v>
+      <c r="C43" s="74" t="s">
+        <v>38</v>
       </c>
       <c r="D43" s="42" t="s">
         <v>6</v>
@@ -5079,11 +5720,15 @@
       <c r="F43" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G43" s="43"/>
+      <c r="G43" s="43">
+        <v>2</v>
+      </c>
       <c r="H43" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="I43" s="44"/>
+      <c r="I43" s="44">
+        <v>2</v>
+      </c>
       <c r="J43" s="45" t="s">
         <v>6</v>
       </c>
@@ -5092,8 +5737,8 @@
     <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
       <c r="B44" s="34"/>
-      <c r="C44" s="82" t="s">
-        <v>41</v>
+      <c r="C44" s="79" t="s">
+        <v>40</v>
       </c>
       <c r="D44" s="42" t="s">
         <v>6</v>
@@ -5102,11 +5747,15 @@
       <c r="F44" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G44" s="43"/>
+      <c r="G44" s="43">
+        <v>2</v>
+      </c>
       <c r="H44" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="I44" s="44"/>
+      <c r="I44" s="44">
+        <v>2</v>
+      </c>
       <c r="J44" s="45" t="s">
         <v>6</v>
       </c>
@@ -5114,21 +5763,27 @@
     </row>
     <row r="45" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
-      <c r="C45" s="73" t="s">
-        <v>36</v>
+      <c r="C45" s="70" t="s">
+        <v>35</v>
       </c>
       <c r="D45" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="42"/>
+      <c r="E45" s="42">
+        <v>6</v>
+      </c>
       <c r="F45" s="43">
         <v>2</v>
       </c>
-      <c r="G45" s="43"/>
+      <c r="G45" s="43">
+        <v>6</v>
+      </c>
       <c r="H45" s="44">
-        <v>6</v>
-      </c>
-      <c r="I45" s="44"/>
+        <v>2</v>
+      </c>
+      <c r="I45" s="44">
+        <v>1</v>
+      </c>
       <c r="J45" s="45" t="s">
         <v>6</v>
       </c>
@@ -5137,21 +5792,27 @@
     <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="78" t="s">
-        <v>39</v>
+      <c r="C46" s="75" t="s">
+        <v>38</v>
       </c>
       <c r="D46" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="42"/>
+      <c r="E46" s="42">
+        <v>2</v>
+      </c>
       <c r="F46" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G46" s="87"/>
+      <c r="G46" s="84">
+        <v>2</v>
+      </c>
       <c r="H46" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="I46" s="44"/>
+      <c r="I46" s="44">
+        <v>1</v>
+      </c>
       <c r="J46" s="45" t="s">
         <v>6</v>
       </c>
@@ -5160,21 +5821,27 @@
     <row r="47" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="83" t="s">
-        <v>41</v>
+      <c r="C47" s="80" t="s">
+        <v>40</v>
       </c>
       <c r="D47" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="42"/>
+      <c r="E47" s="42">
+        <v>2</v>
+      </c>
       <c r="F47" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G47" s="43"/>
+      <c r="G47" s="43">
+        <v>2</v>
+      </c>
       <c r="H47" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="I47" s="44"/>
+      <c r="I47" s="44">
+        <v>1</v>
+      </c>
       <c r="J47" s="45" t="s">
         <v>6</v>
       </c>
@@ -5183,8 +5850,8 @@
     <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="73" t="s">
-        <v>37</v>
+      <c r="C48" s="70" t="s">
+        <v>36</v>
       </c>
       <c r="D48" s="42" t="s">
         <v>6</v>
@@ -5193,7 +5860,9 @@
       <c r="F48" s="43">
         <v>4</v>
       </c>
-      <c r="G48" s="43"/>
+      <c r="G48" s="43">
+        <v>2</v>
+      </c>
       <c r="H48" s="44" t="s">
         <v>6</v>
       </c>
@@ -5206,8 +5875,8 @@
     <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="79" t="s">
-        <v>39</v>
+      <c r="C49" s="76" t="s">
+        <v>38</v>
       </c>
       <c r="D49" s="42" t="s">
         <v>6</v>
@@ -5216,7 +5885,9 @@
       <c r="F49" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G49" s="43"/>
+      <c r="G49" s="43">
+        <v>2</v>
+      </c>
       <c r="H49" s="44" t="s">
         <v>6</v>
       </c>
@@ -5229,8 +5900,8 @@
     <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="84" t="s">
-        <v>41</v>
+      <c r="C50" s="81" t="s">
+        <v>40</v>
       </c>
       <c r="D50" s="42" t="s">
         <v>6</v>
@@ -5239,7 +5910,9 @@
       <c r="F50" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G50" s="43"/>
+      <c r="G50" s="43">
+        <v>2</v>
+      </c>
       <c r="H50" s="44" t="s">
         <v>6</v>
       </c>
@@ -5252,250 +5925,276 @@
     <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="74" t="s">
-        <v>38</v>
+      <c r="C51" s="71" t="s">
+        <v>37</v>
       </c>
       <c r="D51" s="42">
-        <v>4</v>
-      </c>
-      <c r="E51" s="42"/>
+        <v>8</v>
+      </c>
+      <c r="E51" s="42">
+        <v>8</v>
+      </c>
       <c r="F51" s="43">
-        <v>4</v>
-      </c>
-      <c r="G51" s="43"/>
+        <v>8</v>
+      </c>
+      <c r="G51" s="43">
+        <v>8</v>
+      </c>
       <c r="H51" s="44">
-        <v>4</v>
-      </c>
-      <c r="I51" s="44"/>
+        <v>8</v>
+      </c>
+      <c r="I51" s="44">
+        <v>8</v>
+      </c>
       <c r="J51" s="45">
-        <v>4</v>
-      </c>
-      <c r="K51" s="45"/>
+        <v>8</v>
+      </c>
+      <c r="K51" s="45">
+        <v>8</v>
+      </c>
     </row>
     <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="76" t="s">
-        <v>39</v>
+      <c r="C52" s="73" t="s">
+        <v>38</v>
       </c>
       <c r="D52" s="42">
         <v>8</v>
       </c>
-      <c r="E52" s="42"/>
+      <c r="E52" s="42">
+        <v>8</v>
+      </c>
       <c r="F52" s="43">
         <v>8</v>
       </c>
-      <c r="G52" s="43"/>
+      <c r="G52" s="43">
+        <v>8</v>
+      </c>
       <c r="H52" s="44">
         <v>8</v>
       </c>
-      <c r="I52" s="44"/>
+      <c r="I52" s="44">
+        <v>8</v>
+      </c>
       <c r="J52" s="45">
         <v>8</v>
       </c>
-      <c r="K52" s="45"/>
+      <c r="K52" s="45">
+        <v>8</v>
+      </c>
     </row>
     <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="D53" s="42">
-        <v>6</v>
-      </c>
-      <c r="E53" s="42"/>
-      <c r="F53" s="43">
-        <v>6</v>
-      </c>
-      <c r="G53" s="43"/>
-      <c r="H53" s="44">
-        <v>6</v>
-      </c>
-      <c r="I53" s="44"/>
-      <c r="J53" s="45">
-        <v>6</v>
-      </c>
-      <c r="K53" s="45"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" s="56">
+        <v>8</v>
+      </c>
+      <c r="E53" s="56">
+        <v>8</v>
+      </c>
+      <c r="F53" s="57">
+        <v>8</v>
+      </c>
+      <c r="G53" s="57">
+        <v>8</v>
+      </c>
+      <c r="H53" s="58">
+        <v>8</v>
+      </c>
+      <c r="I53" s="58">
+        <v>8</v>
+      </c>
+      <c r="J53" s="59">
+        <v>8</v>
+      </c>
+      <c r="K53" s="59">
+        <v>8</v>
+      </c>
     </row>
     <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="33"/>
-      <c r="B54" s="69"/>
-      <c r="C54" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D54" s="65">
+      <c r="A54" s="91"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" s="92">
+        <v>4</v>
+      </c>
+      <c r="E54" s="92">
+        <v>4</v>
+      </c>
+      <c r="F54" s="93">
+        <v>4</v>
+      </c>
+      <c r="G54" s="93">
+        <v>4</v>
+      </c>
+      <c r="H54" s="94">
+        <v>4</v>
+      </c>
+      <c r="I54" s="94">
+        <v>4</v>
+      </c>
+      <c r="J54" s="95">
+        <v>4</v>
+      </c>
+      <c r="K54" s="95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="33"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" s="62">
         <v>2</v>
       </c>
-      <c r="E54" s="65"/>
-      <c r="F54" s="66">
+      <c r="E55" s="62">
         <v>2</v>
       </c>
-      <c r="G54" s="66"/>
-      <c r="H54" s="67">
+      <c r="F55" s="63">
         <v>2</v>
       </c>
-      <c r="I54" s="67"/>
-      <c r="J54" s="68">
+      <c r="G55" s="63">
         <v>2</v>
       </c>
-      <c r="K54" s="68"/>
-    </row>
-    <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5" t="s">
+      <c r="H55" s="64">
+        <v>2</v>
+      </c>
+      <c r="I55" s="64">
+        <v>2</v>
+      </c>
+      <c r="J55" s="65">
+        <v>2</v>
+      </c>
+      <c r="K55" s="65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="46">
-        <f>SUM(D24:D54)</f>
-        <v>52</v>
-      </c>
-      <c r="E55" s="46">
-        <f>SUM(E24:E54)</f>
-        <v>0</v>
-      </c>
-      <c r="F55" s="46">
-        <f>SUM(F24:F54)</f>
+      <c r="D56" s="46">
+        <f t="shared" ref="D56:K56" si="0">SUM(D24:D55)</f>
+        <v>55</v>
+      </c>
+      <c r="E56" s="46">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="F56" s="46">
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="G55" s="46">
-        <f>SUM(G24:G54)</f>
-        <v>0</v>
-      </c>
-      <c r="H55" s="46">
-        <f>SUM(H24:H54)</f>
-        <v>52</v>
-      </c>
-      <c r="I55" s="46">
-        <f>SUM(I24:I54)</f>
-        <v>0</v>
-      </c>
-      <c r="J55" s="46">
-        <f>SUM(J24:J54)</f>
-        <v>48</v>
-      </c>
-      <c r="K55" s="46">
-        <f>SUM(K24:K54)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="47"/>
-      <c r="I56" s="47"/>
-      <c r="J56" s="47"/>
-      <c r="K56" s="47"/>
+      <c r="G56" s="46">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="H56" s="46">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="I56" s="46">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="J56" s="46">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="K56" s="46">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="9"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="11" t="s">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="47"/>
+      <c r="K57" s="47"/>
+    </row>
+    <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="9"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D57" s="48">
-        <f>SUM(D55,D23,)</f>
+      <c r="D58" s="48">
+        <f>SUM(D56,D23,)</f>
+        <v>77</v>
+      </c>
+      <c r="E58" s="48">
+        <f>SUM(E56,E23,)</f>
+        <v>119</v>
+      </c>
+      <c r="F58" s="49">
+        <f>SUM(F56,F23,)</f>
         <v>74</v>
       </c>
-      <c r="E57" s="48">
-        <f>SUM(E55,E23,)</f>
-        <v>27</v>
-      </c>
-      <c r="F57" s="49">
-        <f>SUM(F55,F23,)</f>
-        <v>74</v>
-      </c>
-      <c r="G57" s="49">
-        <f>SUM(G55,G23,)</f>
-        <v>23</v>
-      </c>
-      <c r="H57" s="50">
-        <f>SUM(H55,H23,)</f>
-        <v>71</v>
-      </c>
-      <c r="I57" s="50">
-        <f>SUM(I55,I23,)</f>
-        <v>23</v>
-      </c>
-      <c r="J57" s="51">
-        <f>SUM(J55,J23,)</f>
-        <v>70</v>
-      </c>
-      <c r="K57" s="51">
-        <f>SUM(K55,K23,)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="86">
-        <f t="shared" ref="D58" si="0">SUM(80-D57)</f>
-        <v>6</v>
-      </c>
-      <c r="E58" s="86">
-        <f t="shared" ref="E58" si="1">SUM(80-E57)</f>
-        <v>53</v>
-      </c>
-      <c r="F58" s="86">
-        <f t="shared" ref="F58" si="2">SUM(80-F57)</f>
-        <v>6</v>
-      </c>
-      <c r="G58" s="86">
-        <f t="shared" ref="G58" si="3">SUM(80-G57)</f>
-        <v>57</v>
-      </c>
-      <c r="H58" s="86">
-        <f t="shared" ref="H58" si="4">SUM(80-H57)</f>
-        <v>9</v>
-      </c>
-      <c r="I58" s="86">
-        <f t="shared" ref="I58" si="5">SUM(80-I57)</f>
-        <v>57</v>
-      </c>
-      <c r="J58" s="86">
-        <f t="shared" ref="J58" si="6">SUM(80-J57)</f>
-        <v>10</v>
-      </c>
-      <c r="K58" s="86">
-        <f t="shared" ref="K58" si="7">SUM(80-K57)</f>
-        <v>56</v>
+      <c r="G58" s="49">
+        <f>SUM(G56,G23,)</f>
+        <v>107</v>
+      </c>
+      <c r="H58" s="50">
+        <f>SUM(H56,H23,)</f>
+        <v>75</v>
+      </c>
+      <c r="I58" s="50">
+        <f>SUM(I56,I23,)</f>
+        <v>105</v>
+      </c>
+      <c r="J58" s="51">
+        <f>SUM(J56,J23,)</f>
+        <v>75</v>
+      </c>
+      <c r="K58" s="51">
+        <f>SUM(K56,K23,)</f>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-    </row>
-    <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-    </row>
+      <c r="D59" s="83"/>
+      <c r="E59" s="83"/>
+      <c r="F59" s="83"/>
+      <c r="G59" s="83"/>
+      <c r="H59" s="83"/>
+      <c r="I59" s="83"/>
+      <c r="J59" s="83"/>
+      <c r="K59" s="83"/>
+    </row>
+    <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+    </row>
+    <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
@@ -6470,6 +7169,19 @@
       <c r="I136" s="12"/>
       <c r="J136" s="12"/>
       <c r="K136" s="12"/>
+    </row>
+    <row r="137" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="12"/>
+      <c r="B137" s="12"/>
+      <c r="C137" s="12"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="12"/>
+      <c r="F137" s="12"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="12"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6520,13 +7232,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">9999</Volgorde_x0020_Documenten>
-    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
-    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6691,20 +7402,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">9999</Volgorde_x0020_Documenten>
+    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
+    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FDA2D9-0F29-4761-875B-F7795DA98BB3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DD477B0-7FDC-4B12-8DED-561A832309BE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6728,9 +7438,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DD477B0-7FDC-4B12-8DED-561A832309BE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FDA2D9-0F29-4761-875B-F7795DA98BB3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Docs/planning/Urenplanning en verantwoording themaopdracht Devices.xlsx
+++ b/Docs/planning/Urenplanning en verantwoording themaopdracht Devices.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MuscioCraft\Documents\Skilled_Eagle\Docs\planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\school\Skilled_Eagle\Docs\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="4632" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Grafiek1" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="56">
   <si>
     <t>lesweek</t>
   </si>
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -699,15 +699,6 @@
     <xf numFmtId="0" fontId="8" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -726,9 +717,18 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -749,9 +749,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -788,7 +788,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1027,13 +1027,13 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5</c:v>
@@ -1123,11 +1123,16 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>55</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8357-427F-BFAF-E6185C15B417}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1145,10 +1150,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2</c:v>
@@ -1355,25 +1360,25 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2</c:v>
@@ -1402,6 +1407,9 @@
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="23">
                   <c:v>6</c:v>
                 </c:pt>
@@ -1409,7 +1417,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>8</c:v>
@@ -1418,7 +1426,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>4</c:v>
@@ -1427,11 +1435,16 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>92</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8357-427F-BFAF-E6185C15B417}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1762,6 +1775,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8357-427F-BFAF-E6185C15B417}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1794,7 +1812,7 @@
                   <c:v>-</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>-</c:v>
@@ -1989,7 +2007,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2070,20 +2088,25 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>81</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8357-427F-BFAF-E6185C15B417}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2414,6 +2437,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8357-427F-BFAF-E6185C15B417}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -2434,7 +2462,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2</c:v>
@@ -2641,7 +2669,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4</c:v>
@@ -2695,7 +2723,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>4</c:v>
@@ -2725,17 +2753,22 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>81</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8357-427F-BFAF-E6185C15B417}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -3068,6 +3101,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8357-427F-BFAF-E6185C15B417}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -3088,7 +3126,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2</c:v>
@@ -3297,16 +3335,16 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4</c:v>
@@ -3344,6 +3382,12 @@
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
                 <c:pt idx="29">
                   <c:v>8</c:v>
                 </c:pt>
@@ -3351,7 +3395,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>4</c:v>
@@ -3360,11 +3404,16 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>75</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-8357-427F-BFAF-E6185C15B417}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3420,7 +3469,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="372853800"/>
@@ -3479,7 +3528,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="372853408"/>
@@ -3521,7 +3570,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3551,7 +3600,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-NL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -4118,7 +4167,13 @@
     <xdr:ext cx="9317935" cy="6087717"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -4139,9 +4194,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4179,7 +4234,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4214,6 +4269,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4249,9 +4321,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4427,31 +4516,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
       <c r="B2" s="1"/>
       <c r="C2" s="17" t="s">
@@ -4472,25 +4561,25 @@
       <c r="A3" s="15"/>
       <c r="B3" s="20"/>
       <c r="C3" s="21"/>
-      <c r="D3" s="88" t="s">
+      <c r="D3" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="89"/>
-      <c r="F3" s="90" t="s">
+      <c r="E3" s="95"/>
+      <c r="F3" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90" t="s">
+      <c r="G3" s="96"/>
+      <c r="H3" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90" t="s">
+      <c r="I3" s="96"/>
+      <c r="J3" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="90"/>
+      <c r="K3" s="96"/>
       <c r="L3" s="23"/>
     </row>
-    <row r="5" spans="1:12" s="29" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="29" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>0</v>
       </c>
@@ -4525,7 +4614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="35"/>
       <c r="B6" s="35" t="s">
         <v>47</v>
@@ -4558,7 +4647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>7</v>
       </c>
@@ -4572,7 +4661,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="39">
         <v>4</v>
@@ -4593,7 +4682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="29" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" s="29" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="53"/>
       <c r="B8" s="35" t="s">
         <v>48</v>
@@ -4605,7 +4694,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="38">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F8" s="39">
         <v>1</v>
@@ -4617,16 +4706,16 @@
         <v>6</v>
       </c>
       <c r="I8" s="40">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J8" s="41">
         <v>6</v>
       </c>
       <c r="K8" s="41">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="29" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="29" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52"/>
       <c r="B9" s="37">
         <v>42667</v>
@@ -4659,7 +4748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="37" t="s">
         <v>46</v>
       </c>
@@ -4691,7 +4780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="2">
         <v>42669</v>
@@ -4724,7 +4813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="2">
         <v>42670</v>
@@ -4742,7 +4831,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="43">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H12" s="44" t="s">
         <v>6</v>
@@ -4757,7 +4846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="37" t="s">
         <v>46</v>
@@ -4790,7 +4879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="2">
         <v>42669</v>
@@ -4823,7 +4912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="2">
         <v>42670</v>
@@ -4856,7 +4945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="37" t="s">
         <v>46</v>
@@ -4889,7 +4978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="2">
         <v>42669</v>
@@ -4922,7 +5011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="2">
         <v>42670</v>
@@ -4955,7 +5044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="37" t="s">
         <v>46</v>
@@ -4988,7 +5077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="2">
         <v>42669</v>
@@ -5021,7 +5110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="54"/>
       <c r="B21" s="55">
         <v>42670</v>
@@ -5054,7 +5143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33"/>
       <c r="B22" s="66" t="s">
         <v>51</v>
@@ -5087,7 +5176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="60"/>
       <c r="B23" s="60"/>
       <c r="C23" s="32" t="s">
@@ -5099,7 +5188,7 @@
       </c>
       <c r="E23" s="61">
         <f>SUM(E6:E22)</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F23" s="61">
         <f>SUM(F6:F22)</f>
@@ -5107,7 +5196,7 @@
       </c>
       <c r="G23" s="61">
         <f>SUM(G6:G22)</f>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H23" s="61">
         <f>SUM(H7:H22)</f>
@@ -5115,7 +5204,7 @@
       </c>
       <c r="I23" s="61">
         <f>SUM(I6:I22)</f>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J23" s="61">
         <f>SUM(J6:J22)</f>
@@ -5123,10 +5212,10 @@
       </c>
       <c r="K23" s="61">
         <f>SUM(K6:K22)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>9</v>
       </c>
@@ -5135,10 +5224,10 @@
         <v>52</v>
       </c>
       <c r="D24" s="42">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E24" s="42">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F24" s="43" t="s">
         <v>6</v>
@@ -5159,7 +5248,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="30"/>
       <c r="C25" s="72" t="s">
@@ -5169,7 +5258,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="42">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F25" s="43">
         <v>1</v>
@@ -5187,20 +5276,20 @@
         <v>2</v>
       </c>
       <c r="K25" s="45">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="30"/>
       <c r="C26" s="77" t="s">
         <v>40</v>
       </c>
       <c r="D26" s="42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E26" s="42">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F26" s="43">
         <v>1</v>
@@ -5218,10 +5307,10 @@
         <v>2</v>
       </c>
       <c r="K26" s="45">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="30"/>
       <c r="C27" s="85" t="s">
@@ -5231,7 +5320,7 @@
         <v>5</v>
       </c>
       <c r="E27" s="42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="43">
         <v>5</v>
@@ -5252,7 +5341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="30"/>
       <c r="C28" s="86" t="s">
@@ -5283,7 +5372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="30"/>
       <c r="C29" s="87" t="s">
@@ -5292,8 +5381,8 @@
       <c r="D29" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="42" t="s">
-        <v>6</v>
+      <c r="E29" s="42">
+        <v>3</v>
       </c>
       <c r="F29" s="43" t="s">
         <v>6</v>
@@ -5314,7 +5403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="34"/>
       <c r="C30" s="68" t="s">
@@ -5345,7 +5434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="34"/>
       <c r="C31" s="73" t="s">
@@ -5376,7 +5465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="34"/>
       <c r="C32" s="78" t="s">
@@ -5407,7 +5496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="34"/>
       <c r="C33" s="68" t="s">
@@ -5438,7 +5527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="34"/>
       <c r="C34" s="73" t="s">
@@ -5469,7 +5558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="34"/>
       <c r="C35" s="78" t="s">
@@ -5500,7 +5589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>54</v>
       </c>
@@ -5535,7 +5624,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>54</v>
       </c>
@@ -5570,7 +5659,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>54</v>
       </c>
@@ -5605,7 +5694,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="34"/>
       <c r="C39" s="68" t="s">
@@ -5630,7 +5719,7 @@
       </c>
       <c r="K39" s="45"/>
     </row>
-    <row r="40" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="34"/>
       <c r="C40" s="72" t="s">
@@ -5655,7 +5744,7 @@
       </c>
       <c r="K40" s="45"/>
     </row>
-    <row r="41" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="34"/>
       <c r="C41" s="78" t="s">
@@ -5664,7 +5753,9 @@
       <c r="D41" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="42"/>
+      <c r="E41" s="42">
+        <v>1</v>
+      </c>
       <c r="F41" s="43" t="s">
         <v>6</v>
       </c>
@@ -5673,14 +5764,16 @@
         <v>6</v>
       </c>
       <c r="I41" s="44">
+        <v>3</v>
+      </c>
+      <c r="J41" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K41" s="45">
         <v>1</v>
       </c>
-      <c r="J41" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="K41" s="45"/>
-    </row>
-    <row r="42" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="34"/>
       <c r="C42" s="69" t="s">
@@ -5707,7 +5800,7 @@
       </c>
       <c r="K42" s="45"/>
     </row>
-    <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="34"/>
       <c r="C43" s="74" t="s">
@@ -5734,7 +5827,7 @@
       </c>
       <c r="K43" s="45"/>
     </row>
-    <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="34"/>
       <c r="C44" s="79" t="s">
@@ -5761,7 +5854,7 @@
       </c>
       <c r="K44" s="45"/>
     </row>
-    <row r="45" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="70" t="s">
         <v>35</v>
@@ -5789,7 +5882,7 @@
       </c>
       <c r="K45" s="45"/>
     </row>
-    <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="2"/>
       <c r="C46" s="75" t="s">
@@ -5818,7 +5911,7 @@
       </c>
       <c r="K46" s="45"/>
     </row>
-    <row r="47" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="2"/>
       <c r="C47" s="80" t="s">
@@ -5828,7 +5921,7 @@
         <v>6</v>
       </c>
       <c r="E47" s="42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F47" s="43" t="s">
         <v>6</v>
@@ -5845,9 +5938,11 @@
       <c r="J47" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="K47" s="45"/>
-    </row>
-    <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K47" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="2"/>
       <c r="C48" s="70" t="s">
@@ -5872,7 +5967,7 @@
       </c>
       <c r="K48" s="45"/>
     </row>
-    <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="2"/>
       <c r="C49" s="76" t="s">
@@ -5897,7 +5992,7 @@
       </c>
       <c r="K49" s="45"/>
     </row>
-    <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="2"/>
       <c r="C50" s="81" t="s">
@@ -5922,7 +6017,7 @@
       </c>
       <c r="K50" s="45"/>
     </row>
-    <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="2"/>
       <c r="C51" s="71" t="s">
@@ -5953,7 +6048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="2"/>
       <c r="C52" s="73" t="s">
@@ -5984,7 +6079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="55"/>
       <c r="C53" s="78" t="s">
@@ -5994,13 +6089,13 @@
         <v>8</v>
       </c>
       <c r="E53" s="56">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F53" s="57">
         <v>8</v>
       </c>
       <c r="G53" s="57">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H53" s="58">
         <v>8</v>
@@ -6012,41 +6107,41 @@
         <v>8</v>
       </c>
       <c r="K53" s="59">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="91"/>
-      <c r="B54" s="96"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="88"/>
+      <c r="B54" s="93"/>
       <c r="C54" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="92">
+      <c r="D54" s="89">
         <v>4</v>
       </c>
-      <c r="E54" s="92">
+      <c r="E54" s="89">
         <v>4</v>
       </c>
-      <c r="F54" s="93">
+      <c r="F54" s="90">
         <v>4</v>
       </c>
-      <c r="G54" s="93">
+      <c r="G54" s="90">
+        <v>6</v>
+      </c>
+      <c r="H54" s="91">
         <v>4</v>
       </c>
-      <c r="H54" s="94">
+      <c r="I54" s="91">
+        <v>6</v>
+      </c>
+      <c r="J54" s="92">
         <v>4</v>
       </c>
-      <c r="I54" s="94">
+      <c r="K54" s="92">
         <v>4</v>
       </c>
-      <c r="J54" s="95">
-        <v>4</v>
-      </c>
-      <c r="K54" s="95">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="33"/>
       <c r="B55" s="66"/>
       <c r="C55" s="33" t="s">
@@ -6077,7 +6172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="5" t="s">
@@ -6085,11 +6180,11 @@
       </c>
       <c r="D56" s="46">
         <f t="shared" ref="D56:K56" si="0">SUM(D24:D55)</f>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E56" s="46">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="F56" s="46">
         <f t="shared" si="0"/>
@@ -6097,7 +6192,7 @@
       </c>
       <c r="G56" s="46">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H56" s="46">
         <f t="shared" si="0"/>
@@ -6105,7 +6200,7 @@
       </c>
       <c r="I56" s="46">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J56" s="46">
         <f t="shared" si="0"/>
@@ -6113,10 +6208,10 @@
       </c>
       <c r="K56" s="46">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -6129,46 +6224,46 @@
       <c r="J57" s="47"/>
       <c r="K57" s="47"/>
     </row>
-    <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
       <c r="B58" s="10"/>
       <c r="C58" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D58" s="48">
-        <f>SUM(D56,D23,)</f>
-        <v>77</v>
+        <f t="shared" ref="D58:K58" si="1">SUM(D56,D23,)</f>
+        <v>75</v>
       </c>
       <c r="E58" s="48">
-        <f>SUM(E56,E23,)</f>
-        <v>119</v>
+        <f t="shared" si="1"/>
+        <v>136</v>
       </c>
       <c r="F58" s="49">
-        <f>SUM(F56,F23,)</f>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="G58" s="49">
-        <f>SUM(G56,G23,)</f>
-        <v>107</v>
+        <f t="shared" si="1"/>
+        <v>118</v>
       </c>
       <c r="H58" s="50">
-        <f>SUM(H56,H23,)</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="I58" s="50">
-        <f>SUM(I56,I23,)</f>
-        <v>105</v>
+        <f t="shared" si="1"/>
+        <v>115</v>
       </c>
       <c r="J58" s="51">
-        <f>SUM(J56,J23,)</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="K58" s="51">
-        <f>SUM(K56,K23,)</f>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
@@ -6181,7 +6276,7 @@
       <c r="J59" s="83"/>
       <c r="K59" s="83"/>
     </row>
-    <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -6194,8 +6289,8 @@
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
     </row>
-    <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
@@ -6208,7 +6303,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="12"/>
     </row>
-    <row r="63" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
@@ -6221,7 +6316,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="12"/>
     </row>
-    <row r="64" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
@@ -6234,7 +6329,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="12"/>
     </row>
-    <row r="65" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -6247,7 +6342,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="12"/>
     </row>
-    <row r="66" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
@@ -6260,7 +6355,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="12"/>
     </row>
-    <row r="67" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
@@ -6273,7 +6368,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="12"/>
     </row>
-    <row r="68" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
@@ -6286,7 +6381,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="12"/>
     </row>
-    <row r="69" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
@@ -6299,7 +6394,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="12"/>
     </row>
-    <row r="70" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -6312,7 +6407,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="12"/>
     </row>
-    <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
@@ -6325,7 +6420,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="12"/>
     </row>
-    <row r="72" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
@@ -6338,7 +6433,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="12"/>
     </row>
-    <row r="73" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -6351,7 +6446,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="12"/>
     </row>
-    <row r="74" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="12"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
@@ -6364,7 +6459,7 @@
       <c r="J74" s="12"/>
       <c r="K74" s="12"/>
     </row>
-    <row r="75" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
@@ -6377,7 +6472,7 @@
       <c r="J75" s="12"/>
       <c r="K75" s="12"/>
     </row>
-    <row r="76" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
@@ -6390,7 +6485,7 @@
       <c r="J76" s="12"/>
       <c r="K76" s="12"/>
     </row>
-    <row r="77" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
@@ -6403,7 +6498,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="12"/>
     </row>
-    <row r="78" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
@@ -6416,7 +6511,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="12"/>
     </row>
-    <row r="79" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
@@ -6429,7 +6524,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="12"/>
     </row>
-    <row r="80" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12"/>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
@@ -6442,7 +6537,7 @@
       <c r="J80" s="12"/>
       <c r="K80" s="12"/>
     </row>
-    <row r="81" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
@@ -6455,7 +6550,7 @@
       <c r="J81" s="12"/>
       <c r="K81" s="12"/>
     </row>
-    <row r="82" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
@@ -6468,7 +6563,7 @@
       <c r="J82" s="12"/>
       <c r="K82" s="12"/>
     </row>
-    <row r="83" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
@@ -6481,7 +6576,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="12"/>
     </row>
-    <row r="84" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="12"/>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
@@ -6494,7 +6589,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="12"/>
     </row>
-    <row r="85" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
@@ -6507,7 +6602,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="12"/>
     </row>
-    <row r="86" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="12"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
@@ -6520,7 +6615,7 @@
       <c r="J86" s="12"/>
       <c r="K86" s="12"/>
     </row>
-    <row r="87" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12"/>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
@@ -6533,7 +6628,7 @@
       <c r="J87" s="12"/>
       <c r="K87" s="12"/>
     </row>
-    <row r="88" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
@@ -6546,7 +6641,7 @@
       <c r="J88" s="12"/>
       <c r="K88" s="12"/>
     </row>
-    <row r="89" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12"/>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
@@ -6559,7 +6654,7 @@
       <c r="J89" s="12"/>
       <c r="K89" s="12"/>
     </row>
-    <row r="90" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="12"/>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
@@ -6572,7 +6667,7 @@
       <c r="J90" s="12"/>
       <c r="K90" s="12"/>
     </row>
-    <row r="91" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -6585,7 +6680,7 @@
       <c r="J91" s="12"/>
       <c r="K91" s="12"/>
     </row>
-    <row r="92" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12"/>
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
@@ -6598,7 +6693,7 @@
       <c r="J92" s="12"/>
       <c r="K92" s="12"/>
     </row>
-    <row r="93" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12"/>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
@@ -6611,7 +6706,7 @@
       <c r="J93" s="12"/>
       <c r="K93" s="12"/>
     </row>
-    <row r="94" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12"/>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
@@ -6624,7 +6719,7 @@
       <c r="J94" s="12"/>
       <c r="K94" s="12"/>
     </row>
-    <row r="95" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12"/>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
@@ -6637,7 +6732,7 @@
       <c r="J95" s="12"/>
       <c r="K95" s="12"/>
     </row>
-    <row r="96" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
@@ -6650,7 +6745,7 @@
       <c r="J96" s="12"/>
       <c r="K96" s="12"/>
     </row>
-    <row r="97" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
@@ -6663,7 +6758,7 @@
       <c r="J97" s="12"/>
       <c r="K97" s="12"/>
     </row>
-    <row r="98" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12"/>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
@@ -6676,7 +6771,7 @@
       <c r="J98" s="12"/>
       <c r="K98" s="12"/>
     </row>
-    <row r="99" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12"/>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
@@ -6689,7 +6784,7 @@
       <c r="J99" s="12"/>
       <c r="K99" s="12"/>
     </row>
-    <row r="100" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12"/>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
@@ -6702,7 +6797,7 @@
       <c r="J100" s="12"/>
       <c r="K100" s="12"/>
     </row>
-    <row r="101" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
@@ -6715,7 +6810,7 @@
       <c r="J101" s="12"/>
       <c r="K101" s="12"/>
     </row>
-    <row r="102" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
@@ -6728,7 +6823,7 @@
       <c r="J102" s="12"/>
       <c r="K102" s="12"/>
     </row>
-    <row r="103" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
@@ -6741,7 +6836,7 @@
       <c r="J103" s="12"/>
       <c r="K103" s="12"/>
     </row>
-    <row r="104" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="12"/>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
@@ -6754,7 +6849,7 @@
       <c r="J104" s="12"/>
       <c r="K104" s="12"/>
     </row>
-    <row r="105" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="12"/>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
@@ -6767,7 +6862,7 @@
       <c r="J105" s="12"/>
       <c r="K105" s="12"/>
     </row>
-    <row r="106" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="12"/>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
@@ -6780,7 +6875,7 @@
       <c r="J106" s="12"/>
       <c r="K106" s="12"/>
     </row>
-    <row r="107" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="12"/>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
@@ -6793,7 +6888,7 @@
       <c r="J107" s="12"/>
       <c r="K107" s="12"/>
     </row>
-    <row r="108" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
@@ -6806,7 +6901,7 @@
       <c r="J108" s="12"/>
       <c r="K108" s="12"/>
     </row>
-    <row r="109" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
       <c r="C109" s="12"/>
@@ -6819,7 +6914,7 @@
       <c r="J109" s="12"/>
       <c r="K109" s="12"/>
     </row>
-    <row r="110" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
@@ -6832,7 +6927,7 @@
       <c r="J110" s="12"/>
       <c r="K110" s="12"/>
     </row>
-    <row r="111" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="12"/>
       <c r="B111" s="12"/>
       <c r="C111" s="12"/>
@@ -6845,7 +6940,7 @@
       <c r="J111" s="12"/>
       <c r="K111" s="12"/>
     </row>
-    <row r="112" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
@@ -6858,7 +6953,7 @@
       <c r="J112" s="12"/>
       <c r="K112" s="12"/>
     </row>
-    <row r="113" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -6871,7 +6966,7 @@
       <c r="J113" s="12"/>
       <c r="K113" s="12"/>
     </row>
-    <row r="114" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -6884,7 +6979,7 @@
       <c r="J114" s="12"/>
       <c r="K114" s="12"/>
     </row>
-    <row r="115" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -6897,7 +6992,7 @@
       <c r="J115" s="12"/>
       <c r="K115" s="12"/>
     </row>
-    <row r="116" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -6910,7 +7005,7 @@
       <c r="J116" s="12"/>
       <c r="K116" s="12"/>
     </row>
-    <row r="117" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="12"/>
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
@@ -6923,7 +7018,7 @@
       <c r="J117" s="12"/>
       <c r="K117" s="12"/>
     </row>
-    <row r="118" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="12"/>
       <c r="B118" s="12"/>
       <c r="C118" s="12"/>
@@ -6936,7 +7031,7 @@
       <c r="J118" s="12"/>
       <c r="K118" s="12"/>
     </row>
-    <row r="119" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="12"/>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
@@ -6949,7 +7044,7 @@
       <c r="J119" s="12"/>
       <c r="K119" s="12"/>
     </row>
-    <row r="120" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="12"/>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
@@ -6962,7 +7057,7 @@
       <c r="J120" s="12"/>
       <c r="K120" s="12"/>
     </row>
-    <row r="121" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="12"/>
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
@@ -6975,7 +7070,7 @@
       <c r="J121" s="12"/>
       <c r="K121" s="12"/>
     </row>
-    <row r="122" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="12"/>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
@@ -6988,7 +7083,7 @@
       <c r="J122" s="12"/>
       <c r="K122" s="12"/>
     </row>
-    <row r="123" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="12"/>
       <c r="B123" s="12"/>
       <c r="C123" s="12"/>
@@ -7001,7 +7096,7 @@
       <c r="J123" s="12"/>
       <c r="K123" s="12"/>
     </row>
-    <row r="124" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="12"/>
       <c r="B124" s="12"/>
       <c r="C124" s="12"/>
@@ -7014,7 +7109,7 @@
       <c r="J124" s="12"/>
       <c r="K124" s="12"/>
     </row>
-    <row r="125" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="12"/>
       <c r="B125" s="12"/>
       <c r="C125" s="12"/>
@@ -7027,7 +7122,7 @@
       <c r="J125" s="12"/>
       <c r="K125" s="12"/>
     </row>
-    <row r="126" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="12"/>
       <c r="B126" s="12"/>
       <c r="C126" s="12"/>
@@ -7040,7 +7135,7 @@
       <c r="J126" s="12"/>
       <c r="K126" s="12"/>
     </row>
-    <row r="127" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="12"/>
       <c r="B127" s="12"/>
       <c r="C127" s="12"/>
@@ -7053,7 +7148,7 @@
       <c r="J127" s="12"/>
       <c r="K127" s="12"/>
     </row>
-    <row r="128" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="12"/>
       <c r="B128" s="12"/>
       <c r="C128" s="12"/>
@@ -7066,7 +7161,7 @@
       <c r="J128" s="12"/>
       <c r="K128" s="12"/>
     </row>
-    <row r="129" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
@@ -7079,7 +7174,7 @@
       <c r="J129" s="12"/>
       <c r="K129" s="12"/>
     </row>
-    <row r="130" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="12"/>
       <c r="B130" s="12"/>
       <c r="C130" s="12"/>
@@ -7092,7 +7187,7 @@
       <c r="J130" s="12"/>
       <c r="K130" s="12"/>
     </row>
-    <row r="131" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="12"/>
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
@@ -7105,7 +7200,7 @@
       <c r="J131" s="12"/>
       <c r="K131" s="12"/>
     </row>
-    <row r="132" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="12"/>
       <c r="B132" s="12"/>
       <c r="C132" s="12"/>
@@ -7118,7 +7213,7 @@
       <c r="J132" s="12"/>
       <c r="K132" s="12"/>
     </row>
-    <row r="133" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="12"/>
       <c r="B133" s="12"/>
       <c r="C133" s="12"/>
@@ -7131,7 +7226,7 @@
       <c r="J133" s="12"/>
       <c r="K133" s="12"/>
     </row>
-    <row r="134" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="12"/>
       <c r="B134" s="12"/>
       <c r="C134" s="12"/>
@@ -7144,7 +7239,7 @@
       <c r="J134" s="12"/>
       <c r="K134" s="12"/>
     </row>
-    <row r="135" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="12"/>
       <c r="B135" s="12"/>
       <c r="C135" s="12"/>
@@ -7157,7 +7252,7 @@
       <c r="J135" s="12"/>
       <c r="K135" s="12"/>
     </row>
-    <row r="136" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="12"/>
       <c r="B136" s="12"/>
       <c r="C136" s="12"/>
@@ -7170,7 +7265,7 @@
       <c r="J136" s="12"/>
       <c r="K136" s="12"/>
     </row>
-    <row r="137" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="12"/>
       <c r="B137" s="12"/>
       <c r="C137" s="12"/>
@@ -7201,31 +7296,31 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="9.140625" customWidth="1"/>
+    <col min="1" max="6" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
